--- a/Apple DCF Medium.xlsx
+++ b/Apple DCF Medium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3736CA-D7CE-2845-AFB1-2B0D340B0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A4C25-CF81-074B-8045-0884F06DDD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="3120" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55780" yWindow="2800" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>Appreciation</t>
   </si>
   <si>
-    <t>4.5 Year CAGR</t>
-  </si>
-  <si>
     <t>Terminal</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   </si>
   <si>
     <t>2015-2020 Average</t>
+  </si>
+  <si>
+    <t>4.33 Year CAGR</t>
   </si>
 </sst>
 </file>
@@ -4263,7 +4263,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4278,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="150" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -4289,7 +4289,7 @@
       <c r="B2" s="151"/>
       <c r="C2" s="151"/>
       <c r="D2" s="151" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4379,11 +4379,11 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B11" s="149">
-        <f>(1+B10)^(1/4.5)-1</f>
-        <v>0.13445418193233016</v>
+        <f>(1+B10)^(1/4.33)-1</f>
+        <v>0.14008688449648332</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4432,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -4443,22 +4443,22 @@
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82"/>
       <c r="B2" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="D2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="E2" s="96" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="82"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="97">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>1.1056735628430301</v>
       </c>
       <c r="F3" s="100" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4486,10 +4486,10 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="101" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="102"/>
       <c r="D5" s="102"/>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="103">
         <v>0.26828154953248601</v>
@@ -4507,26 +4507,26 @@
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="104" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>73</v>
       </c>
       <c r="C7" s="92"/>
       <c r="D7" s="92"/>
       <c r="E7" s="92"/>
       <c r="F7" s="104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="103">
         <v>0.17872712016695</v>
@@ -4535,7 +4535,7 @@
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
       <c r="F8" s="104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4548,13 +4548,13 @@
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="C10" s="106" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>78</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="102"/>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="93">
         <v>0.31</v>
@@ -4573,12 +4573,12 @@
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="93">
         <v>0.68</v>
@@ -4589,7 +4589,7 @@
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
       <c r="F12" s="104" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="102"/>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="108">
         <v>0.02</v>
@@ -4621,7 +4621,7 @@
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4635,12 +4635,12 @@
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
       <c r="F16" s="104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="108">
         <v>6.9000000000000006E-2</v>
@@ -4649,12 +4649,12 @@
       <c r="D17" s="92"/>
       <c r="E17" s="92"/>
       <c r="F17" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="108">
         <v>6.0999999999999999E-2</v>
@@ -4663,12 +4663,12 @@
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="108">
         <v>0.17</v>
@@ -4677,12 +4677,12 @@
       <c r="D19" s="92"/>
       <c r="E19" s="92"/>
       <c r="F19" s="104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="108">
         <v>4.4999999999999998E-2</v>
@@ -4691,12 +4691,12 @@
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
       <c r="F20" s="104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="108">
         <v>0.122</v>
@@ -4705,7 +4705,7 @@
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
       <c r="F21" s="104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="109"/>
       <c r="C23" s="102"/>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="110"/>
       <c r="C24" s="92"/>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="110"/>
       <c r="C25" s="92"/>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="110"/>
       <c r="C26" s="92"/>
@@ -4900,12 +4900,12 @@
         <v>2025</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="17">
         <f>FCF!B10</f>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="5" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="17">
         <f>SUM(D5:I5)</f>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="22">
         <f>I8</f>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="29">
         <f>B11-B12</f>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="34">
         <f>Financials!C39*1000000</f>
@@ -5393,19 +5393,19 @@
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="43"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5438,7 +5438,7 @@
     </row>
     <row r="3" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="47">
         <v>265595</v>
@@ -5457,12 +5457,12 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="52">
         <f>B3*1000000</f>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="5" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="55">
         <v>163756</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="52">
         <f>B5*1000000</f>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="61">
         <f t="shared" ref="B8:I8" si="0">B4-B6</f>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="63">
         <f t="shared" ref="B9:I9" si="1">B8/B4</f>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="11" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="18">
         <v>16705</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="52">
         <f t="shared" ref="B12:I12" si="2">B11*1000000</f>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="13" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="65">
         <f t="shared" ref="B13:I13" si="3">B12/B4</f>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="52">
         <f t="shared" ref="B15:I15" si="4">B14*1000000</f>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="52">
         <f>B16*1000000</f>
@@ -5893,12 +5893,12 @@
         <v>11502000000</v>
       </c>
       <c r="J17" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="19">
         <f t="shared" ref="B18:I18" si="5">B17/B4</f>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="61">
         <f t="shared" ref="B20:I20" si="6">B8-B12-B15+B17</f>
@@ -5998,7 +5998,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="61">
         <f t="shared" ref="B22:I22" si="7">B20-B17</f>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="18">
         <v>2005</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="52">
         <f t="shared" ref="B25:I25" si="8">B24*1000000</f>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,7 +6130,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="61">
         <f t="shared" ref="B27:I27" si="9">B22+B25</f>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="52">
         <f t="shared" ref="B29:I29" si="10">B28*1000000</f>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="19">
         <f t="shared" ref="B30:I30" si="11">IF(B27&gt;0,B29/B27,0)</f>
@@ -6274,7 +6274,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6303,7 +6303,7 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="61">
         <f t="shared" ref="B33:I33" si="12">B27-B29</f>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="17">
         <v>75265000000</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="36" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="76">
         <v>122617</v>
@@ -6425,7 +6425,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="17">
         <f>B36*1000000</f>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="78">
         <v>20000.400000000001</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="27">
         <f>B33/B39/1000000</f>
@@ -6591,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="85">
         <v>189264.19990917601</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="88">
         <v>39380.229492070903</v>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="152">
         <v>33601.389420749198</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="152">
         <v>29432.7804561099</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="88">
         <f>SUM(B3:B6)</f>
@@ -6742,7 +6742,7 @@
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="88">
         <v>68466.207833031804</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="88">
         <f>SUM(B8:B9)</f>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="88">
         <f>B11*0.4</f>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="93">
         <f>B12/B11</f>
@@ -6887,12 +6887,12 @@
     <row r="1" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112"/>
       <c r="B1" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="114"/>
       <c r="D1" s="114"/>
       <c r="E1" s="115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="116"/>
       <c r="G1" s="117"/>
@@ -6935,7 +6935,7 @@
         <v>2025</v>
       </c>
       <c r="J2" s="121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6952,7 +6952,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="126">
         <v>48995</v>
@@ -6984,12 +6984,12 @@
         <v>42127.572016460908</v>
       </c>
       <c r="J4" s="128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="126">
         <v>3956</v>
@@ -7021,12 +7021,12 @@
         <v>4048.890625</v>
       </c>
       <c r="J5" s="128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="126">
         <v>55888</v>
@@ -7058,12 +7058,12 @@
         <v>47169.4375</v>
       </c>
       <c r="J6" s="128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="129" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="126">
         <f t="shared" ref="B7:I7" si="1">SUM(B4:B5)-B6</f>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="129" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="134">
@@ -7176,11 +7176,11 @@
     <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137"/>
       <c r="B1" s="113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="139"/>
       <c r="F1" s="138"/>
@@ -7219,7 +7219,7 @@
         <v>2025</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,7 +7235,7 @@
     </row>
     <row r="4" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="134">
         <f>Financials!C33</f>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="5" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="134">
         <f>Financials!C17</f>
@@ -7300,12 +7300,12 @@
         <v>11502000000</v>
       </c>
       <c r="I5" s="128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="126">
         <v>6068</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="7" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="134">
         <f>'NonCash Working Cap'!C9</f>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="134">
         <v>11119000000</v>
@@ -7400,7 +7400,7 @@
         <v>9618812500</v>
       </c>
       <c r="I8" s="128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7416,7 +7416,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="134">
         <f>B4+B5-B7-B8+B6*1000000</f>
@@ -7495,7 +7495,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -7531,59 +7531,59 @@
         <v>1</v>
       </c>
       <c r="C2" s="158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="158" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="158" t="s">
+      <c r="G2" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="H2" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="I2" s="158" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="J2" s="158" t="s">
         <v>117</v>
-      </c>
-      <c r="J2" s="158" t="s">
-        <v>118</v>
       </c>
       <c r="K2" s="160"/>
       <c r="L2" s="158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="158" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="158" t="s">
+      <c r="O2" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="158" t="s">
+      <c r="P2" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="Q2" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="158" t="s">
+      <c r="R2" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="R2" s="158" t="s">
+      <c r="S2" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="S2" s="158" t="s">
+      <c r="T2" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="158" t="s">
+      <c r="U2" s="158" t="s">
         <v>126</v>
-      </c>
-      <c r="U2" s="158" t="s">
-        <v>127</v>
       </c>
       <c r="V2" s="158" t="s">
         <v>6</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="41" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="187" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="188"/>
       <c r="C41" s="188"/>

--- a/Apple DCF Medium.xlsx
+++ b/Apple DCF Medium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A4C25-CF81-074B-8045-0884F06DDD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D482524-99DF-8244-B32A-AC0C0A83A961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="55780" yWindow="2800" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4263,7 +4263,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4360,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <f>'FV Calculation'!$B$13/'FV Calculation'!$I$20</f>
+        <f>'FV Calculation'!I10</f>
         <v>222.4799342225563</v>
       </c>
       <c r="C9" s="4"/>

--- a/Apple DCF Medium.xlsx
+++ b/Apple DCF Medium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shecky/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D482524-99DF-8244-B32A-AC0C0A83A961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753405A-9494-2943-82E0-2166ACCC7958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55780" yWindow="2800" windowWidth="31320" windowHeight="23600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53600" yWindow="1880" windowWidth="24900" windowHeight="16080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="NonCash Working Cap" sheetId="6" r:id="rId6"/>
     <sheet name="FCF" sheetId="7" r:id="rId7"/>
     <sheet name="WACC" sheetId="9" r:id="rId8"/>
+    <sheet name="2021 Estimate" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Company</t>
   </si>
@@ -278,9 +279,6 @@
     <t>iPhone Cycle</t>
   </si>
   <si>
-    <t>Based on average of 2015 and 2018 cycles</t>
-  </si>
-  <si>
     <t>Other Products/Services</t>
   </si>
   <si>
@@ -335,9 +333,6 @@
     <t>Sales/Marketing/General/Admin as a % of Rev</t>
   </si>
   <si>
-    <t>R&amp;D as a % of Rev</t>
-  </si>
-  <si>
     <t>Tax Rate</t>
   </si>
   <si>
@@ -407,9 +402,6 @@
     <t>Fill out the assumptions tab, but don't change the rest</t>
   </si>
   <si>
-    <t>Quarterly Average 2015-2016. See worksheet</t>
-  </si>
-  <si>
     <t>Averages</t>
   </si>
   <si>
@@ -464,7 +456,46 @@
     <t>2015-2020 Average</t>
   </si>
   <si>
-    <t>4.33 Year CAGR</t>
+    <t>4.25 Year CAGR</t>
+  </si>
+  <si>
+    <t>Based on average of 2015 and 2018 cycles with a little extra for 5G adoption</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Cost of Goods</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Average Diluted Shares</t>
+  </si>
+  <si>
+    <t>Weighted Ave Shares</t>
+  </si>
+  <si>
+    <t>Quarterly Average 2015-2021. See worksheet</t>
+  </si>
+  <si>
+    <t>Medium Assumptions</t>
+  </si>
+  <si>
+    <t>P/E Ratio</t>
+  </si>
+  <si>
+    <t>R&amp;D Growth Rate</t>
   </si>
 </sst>
 </file>
@@ -472,17 +503,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,###,,,&quot;B&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;0.00"/>
-    <numFmt numFmtId="167" formatCode="#,###,,&quot;M&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,###.0,&quot;B&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,###&quot;M&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="#,##0%"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0%"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,###,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;0.00"/>
+    <numFmt numFmtId="169" formatCode="#,###,,&quot;M&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,###.0,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="#,###&quot;M&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="#,##0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="#,##0.0#"/>
@@ -989,7 +1020,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -997,10 +1028,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1019,24 +1050,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1051,21 +1082,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,8 +1108,8 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1086,26 +1117,26 @@
     <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="173" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1113,19 +1144,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="13" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,8 +1181,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1160,8 +1191,8 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1176,34 +1207,26 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1215,7 +1238,7 @@
     <xf numFmtId="2" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="169" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1227,7 +1250,7 @@
     <xf numFmtId="178" fontId="22" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
@@ -1236,22 +1259,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1">
@@ -1266,31 +1289,25 @@
     <xf numFmtId="14" fontId="22" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
@@ -1299,6 +1316,25 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1383,833 +1419,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FCF Fair Values</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'FV Calculation'!$D$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>"$"0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128.3216914522624</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128.70613027109161</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>156.15060325309378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>196.86661449285694</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>222.4799342225563</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A3A-5441-9451-5B5288D5AB94}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="99185664"/>
-        <c:axId val="99541600"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="99185664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99541600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="99541600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99185664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="74000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="83000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="45000"/>
-                <a:lumOff val="55000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="accent1">
-                <a:lumMod val="30000"/>
-                <a:lumOff val="70000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,111 +1759,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08829</cdr:x>
-      <cdr:y>0.78205</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97477</cdr:x>
-      <cdr:y>0.78462</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA57DB4-100B-D54C-9501-928ABE4D9B63}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="622300" y="3873500"/>
-          <a:ext cx="6248400" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <global>
@@ -2802,40 +1906,40 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>145.09</v>
-    <v>83.144999999999996</v>
-    <v>1.2021999999999999</v>
-    <v>-1.02</v>
-    <v>-8.0230000000000006E-3</v>
-    <v>0.17</v>
-    <v>1.348E-3</v>
+    <v>150</v>
+    <v>93.767499999999998</v>
+    <v>1.2025999999999999</v>
+    <v>0.22</v>
+    <v>1.5110000000000002E-3</v>
+    <v>0.09</v>
+    <v>6.1699999999999993E-4</v>
     <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets mobile communication and media devices, personal computers and portable digital music players. The Company sells a range of related software, services, accessories, networking solutions, and third-party digital content and applications. The Company's segments include the Americas, Europe, Greater China, Japan and Rest of Asia Pacific. The Americas segment includes both North and South America. The Europe segment includes European countries, India, the Middle East and Africa. The Greater China segment includes China, Hong Kong and Taiwan. The Rest of Asia Pacific segment includes Australia and the Asian countries not included in the Company's other operating segments. Its products and services include iPhone, iPad, Mac, iPod, Apple Watch, Apple TV, a portfolio of consumer and professional software applications, iPhone OS (iOS), OS X and watchOS operating systems, iCloud, Apple Pay and a range of accessory, service and support offerings.</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>147000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, CUPERTINO, CA, 95014-0642 US</v>
-    <v>128.19</v>
+    <v>146.33000000000001</v>
     <v>3</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44357.999995265622</v>
+    <v>44407.99998700156</v>
     <v>4</v>
-    <v>125.94</v>
-    <v>2104477019300</v>
+    <v>144.11000000000001</v>
+    <v>2411090000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>127.02</v>
-    <v>28.527200000000001</v>
-    <v>127.13</v>
-    <v>126.11</v>
-    <v>126.28</v>
-    <v>16687630000</v>
+    <v>144.38</v>
+    <v>28.522600000000001</v>
+    <v>145.63999999999999</v>
+    <v>145.86000000000001</v>
+    <v>145.94999999999999</v>
+    <v>16530170000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>71186421</v>
-    <v>79195562</v>
+    <v>70440626</v>
+    <v>87124432</v>
     <v>1977</v>
   </rv>
   <rv s="4">
@@ -3011,7 +2115,6 @@
       <v>8</v>
       <v>9</v>
       <v>10</v>
-      <v>11</v>
       <v>5</v>
       <v>1</v>
       <v>1</v>
@@ -3054,7 +2157,7 @@
     <k n="Image" t="spb"/>
     <k n="ExchangeID" t="spb"/>
     <k n="UniqueName" t="spb"/>
-    <k n="%ProviderInfo" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
     <k n="LearnMoreOnLink" t="spb"/>
   </s>
   <s>
@@ -3076,7 +2179,6 @@
     <k n="Previous close" t="i"/>
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
-    <k n="`_DisplayString" t="i"/>
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
@@ -3104,7 +2206,7 @@
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <dxfs count="8">
     <x:dxf>
-      <x:numFmt numFmtId="176" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <x:numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
@@ -3116,7 +2218,7 @@
       <x:numFmt numFmtId="14" formatCode="0.00%"/>
     </x:dxf>
     <x:dxf>
-      <x:numFmt numFmtId="175" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+      <x:numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
     </x:dxf>
     <x:dxf>
       <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
@@ -3131,7 +2233,6 @@
   <richProperties>
     <rPr n="IsTitleField" t="b"/>
     <rPr n="IsHeroField" t="b"/>
-    <rPr n="ShouldShowInCell" t="b"/>
   </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
@@ -3146,9 +2247,6 @@
     <rSty dxfid="3"/>
     <rSty dxfid="4"/>
     <rSty dxfid="5"/>
-    <rSty>
-      <rpv i="2">1</rpv>
-    </rSty>
     <rSty dxfid="6"/>
     <rSty dxfid="7"/>
   </richStyles>
@@ -4262,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4277,19 +3375,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="150" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
+      <c r="A1" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
     </row>
     <row r="2" spans="1:4" s="150" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="151"/>
       <c r="B2" s="151"/>
       <c r="C2" s="151"/>
       <c r="D2" s="151" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4318,7 +3416,7 @@
       </c>
       <c r="B5" s="5" cm="1">
         <f t="array" ref="B5">_FV(B4,"Price")</f>
-        <v>126.11</v>
+        <v>145.86000000000001</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4346,7 +3444,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4361,7 +3459,7 @@
       </c>
       <c r="B9" s="8">
         <f>'FV Calculation'!I10</f>
-        <v>222.4799342225563</v>
+        <v>229.87080692333822</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4372,18 +3470,18 @@
       </c>
       <c r="B10" s="148">
         <f>(B9-B5)/B5</f>
-        <v>0.76417361210495838</v>
+        <v>0.57596878461084744</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="149">
-        <f>(1+B10)^(1/4.33)-1</f>
-        <v>0.14008688449648332</v>
+        <f>(1+B10)^(1/4.25)-1</f>
+        <v>0.11296572727015253</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4416,9 +3514,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4431,14 +3530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82"/>
@@ -4454,7 +3553,9 @@
       <c r="E2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="192" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
@@ -4464,16 +3565,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="98">
-        <v>0.87260177256178495</v>
+        <v>0.94</v>
       </c>
       <c r="D3" s="98">
-        <v>0.86715711241804705</v>
+        <v>0.92</v>
       </c>
       <c r="E3" s="99">
         <v>1.1056735628430301</v>
       </c>
       <c r="F3" s="100" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4486,10 +3587,10 @@
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="101" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="102"/>
       <c r="D5" s="102"/>
@@ -4507,21 +3608,21 @@
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="105" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="105" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="92"/>
       <c r="D7" s="92"/>
       <c r="E7" s="92"/>
       <c r="F7" s="104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4535,7 +3636,7 @@
       <c r="D8" s="92"/>
       <c r="E8" s="92"/>
       <c r="F8" s="104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4548,13 +3649,13 @@
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="C10" s="106" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="102"/>
       <c r="E10" s="102"/>
@@ -4562,34 +3663,34 @@
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="93">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="C11" s="94">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D11" s="92"/>
       <c r="E11" s="92"/>
       <c r="F11" s="104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="93">
         <v>0.68</v>
       </c>
       <c r="C12" s="94">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
       <c r="F12" s="104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,7 +3703,7 @@
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="107"/>
       <c r="C14" s="102"/>
@@ -4612,7 +3713,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="108">
         <v>0.02</v>
@@ -4621,7 +3722,7 @@
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4635,40 +3736,40 @@
       <c r="D16" s="92"/>
       <c r="E16" s="92"/>
       <c r="F16" s="104" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="108">
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="C17" s="92"/>
       <c r="D17" s="92"/>
       <c r="E17" s="92"/>
       <c r="F17" s="104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="108">
-        <v>6.0999999999999999E-2</v>
+      <c r="A18" s="194" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="195">
+        <v>0.17399999999999999</v>
       </c>
       <c r="C18" s="92"/>
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="108">
         <v>0.17</v>
@@ -4677,26 +3778,26 @@
       <c r="D19" s="92"/>
       <c r="E19" s="92"/>
       <c r="F19" s="104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="108">
-        <v>4.4999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C20" s="92"/>
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
       <c r="F20" s="104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="108">
         <v>0.122</v>
@@ -4705,7 +3806,7 @@
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
       <c r="F21" s="104" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,7 +3819,7 @@
     </row>
     <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="109"/>
       <c r="C23" s="102"/>
@@ -4728,7 +3829,7 @@
     </row>
     <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="110"/>
       <c r="C24" s="92"/>
@@ -4741,7 +3842,7 @@
     </row>
     <row r="25" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="110"/>
       <c r="C25" s="92"/>
@@ -4754,7 +3855,7 @@
     </row>
     <row r="26" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="110"/>
       <c r="C26" s="92"/>
@@ -4856,7 +3957,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4943,27 +4044,27 @@
       </c>
       <c r="D3" s="17">
         <f>FCF!D10</f>
-        <v>92613704565.339417</v>
+        <v>103929758814.45561</v>
       </c>
       <c r="E3" s="17">
         <f>FCF!E10</f>
-        <v>85057792209.308273</v>
+        <v>93931309346.072327</v>
       </c>
       <c r="F3" s="17">
         <f>FCF!F10</f>
-        <v>96729203361.591034</v>
+        <v>103051157501.66885</v>
       </c>
       <c r="G3" s="17">
         <f>FCF!G10</f>
-        <v>115545392293.31474</v>
+        <v>121494487492.75002</v>
       </c>
       <c r="H3" s="17">
         <f>FCF!H10</f>
-        <v>122424222181.84161</v>
+        <v>127155274985.67651</v>
       </c>
       <c r="I3" s="17">
         <f>H3</f>
-        <v>122424222181.84161</v>
+        <v>127155274985.67651</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5005,27 +4106,27 @@
       <c r="C5" s="21"/>
       <c r="D5" s="22">
         <f>D3/D4</f>
-        <v>92613704565.339417</v>
+        <v>103929758814.45561</v>
       </c>
       <c r="E5" s="22">
         <f>E3/E4</f>
-        <v>79686895455.600784</v>
+        <v>88000102441.514267</v>
       </c>
       <c r="F5" s="22">
         <f>F3/F4</f>
-        <v>84899124967.091599</v>
+        <v>90447897787.728836</v>
       </c>
       <c r="G5" s="22">
         <f>G3/G4</f>
-        <v>95010375827.203979</v>
+        <v>99902182930.124374</v>
       </c>
       <c r="H5" s="22">
         <f>H3/H4</f>
-        <v>94310176917.778976</v>
+        <v>97954769621.61731</v>
       </c>
       <c r="I5" s="22">
         <f>(I3*(1+Dashboard!B6))/I4</f>
-        <v>2634445287457.3516</v>
+        <v>2736252752856.3301</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,27 +4137,27 @@
       <c r="C6" s="24"/>
       <c r="D6" s="25">
         <f>(D3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1992953136216.1648</v>
+        <v>2236463164361.7031</v>
       </c>
       <c r="E6" s="25">
         <f>(E3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>1830357553871.1909</v>
+        <v>2021306656814.2148</v>
       </c>
       <c r="F6" s="25">
         <f>(F3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>2081514502717.782</v>
+        <v>2217556553833.3809</v>
       </c>
       <c r="G6" s="25">
         <f>(G3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>2486419834159.938</v>
+        <v>2614438338451.5825</v>
       </c>
       <c r="H6" s="25">
         <f>(H3*(1+Dashboard!$B$6))/$I$4</f>
-        <v>2634445287457.3516</v>
+        <v>2736252752856.3301</v>
       </c>
       <c r="I6" s="25">
         <f>I5</f>
-        <v>2634445287457.3516</v>
+        <v>2736252752856.3301</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5067,27 +4168,27 @@
       <c r="C7" s="14"/>
       <c r="D7" s="17">
         <f>D5+D6</f>
-        <v>2085566840781.5042</v>
+        <v>2340392923176.1587</v>
       </c>
       <c r="E7" s="17">
         <f>SUM($D5:E5,E6)</f>
-        <v>2002658153892.1311</v>
+        <v>2213236518070.1846</v>
       </c>
       <c r="F7" s="17">
         <f>SUM($D5:F5,F6)</f>
-        <v>2338714227705.814</v>
+        <v>2499934312877.0796</v>
       </c>
       <c r="G7" s="17">
         <f>SUM($D5:G5,G6)</f>
-        <v>2838629934975.1738</v>
+        <v>2996718280425.4058</v>
       </c>
       <c r="H7" s="17">
         <f>SUM($D5:H5,H6)</f>
-        <v>3080965565190.3662</v>
+        <v>3216487464451.7705</v>
       </c>
       <c r="I7" s="17">
         <f>SUM($D5:I5)</f>
-        <v>3080965565190.3662</v>
+        <v>3216487464451.7705</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5098,27 +4199,27 @@
       <c r="C8" s="14"/>
       <c r="D8" s="17">
         <f>-Financials!E37</f>
-        <v>-62465259086.932114</v>
+        <v>-70595024118.554428</v>
       </c>
       <c r="E8" s="17">
         <f>-Financials!F37</f>
-        <v>-54858200645.070465</v>
+        <v>-70606393183.947189</v>
       </c>
       <c r="F8" s="17">
         <f>-Financials!G37</f>
-        <v>-45202609972.752258</v>
+        <v>-69991527433.780289</v>
       </c>
       <c r="G8" s="17">
         <f>-Financials!H37</f>
-        <v>-31640906514.08931</v>
+        <v>-67389453684.50528</v>
       </c>
       <c r="H8" s="17">
         <f>-Financials!I37</f>
-        <v>-16774874577.720993</v>
+        <v>-64292738685.937622</v>
       </c>
       <c r="I8" s="17">
         <f>H8</f>
-        <v>-16774874577.720993</v>
+        <v>-64292738685.937622</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5129,27 +4230,27 @@
       <c r="C9" s="14"/>
       <c r="D9" s="17">
         <f t="shared" ref="D9:I9" si="0">D7-D8</f>
-        <v>2148032099868.4363</v>
+        <v>2410987947294.7129</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>2057516354537.2017</v>
+        <v>2283842911254.1318</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>2383916837678.5664</v>
+        <v>2569925840310.8599</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>2870270841489.2632</v>
+        <v>3064107734109.9111</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>3097740439768.0874</v>
+        <v>3280780203137.708</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="0"/>
-        <v>3097740439768.0874</v>
+        <v>3280780203137.708</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5158,27 +4259,27 @@
       <c r="C10" s="14"/>
       <c r="D10" s="27">
         <f t="shared" ref="D10:I10" si="1">D9/D20</f>
-        <v>128.3216914522624</v>
+        <v>144.07720492976651</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>128.70613027109161</v>
+        <v>142.01789668309013</v>
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>156.15060325309378</v>
+        <v>166.29303176259816</v>
       </c>
       <c r="G10" s="27">
         <f t="shared" si="1"/>
-        <v>196.86661449285694</v>
+        <v>206.31656729587371</v>
       </c>
       <c r="H10" s="27">
         <f t="shared" si="1"/>
-        <v>222.4799342225563</v>
+        <v>229.87080692333822</v>
       </c>
       <c r="I10" s="27">
         <f t="shared" si="1"/>
-        <v>222.4799342225563</v>
+        <v>229.87080692333822</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5187,7 +4288,7 @@
       </c>
       <c r="B11" s="17">
         <f>SUM(D5:I5)</f>
-        <v>3080965565190.3662</v>
+        <v>3216487464451.7705</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -5203,7 +4304,7 @@
       </c>
       <c r="B12" s="22">
         <f>I8</f>
-        <v>-16774874577.720993</v>
+        <v>-64292738685.937622</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5219,7 +4320,7 @@
       </c>
       <c r="B13" s="29">
         <f>B11-B12</f>
-        <v>3097740439768.0874</v>
+        <v>3280780203137.708</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5302,7 +4403,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="B20" s="34">
         <f>Financials!C39*1000000</f>
@@ -5314,27 +4415,27 @@
       </c>
       <c r="D20" s="34">
         <f>Financials!E39</f>
-        <v>16739431000</v>
+        <v>16734000000</v>
       </c>
       <c r="E20" s="34">
         <f>Financials!F39</f>
-        <v>15986156605</v>
+        <v>16081374000</v>
       </c>
       <c r="F20" s="34">
         <f>Financials!G39</f>
-        <v>15266779557.775</v>
+        <v>15454200414</v>
       </c>
       <c r="G20" s="34">
         <f>Financials!H39</f>
-        <v>14579774477.675123</v>
+        <v>14851486597.854</v>
       </c>
       <c r="H20" s="34">
         <f>Financials!I39</f>
-        <v>13923684626.179743</v>
+        <v>14272278620.537693</v>
       </c>
       <c r="I20" s="34">
         <f>H20</f>
-        <v>13923684626.179743</v>
+        <v>14272278620.537693</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5366,16 +4467,15 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5477,24 +4577,24 @@
         <v>274515000000</v>
       </c>
       <c r="E4" s="53">
-        <f>'Revenue Model'!B11*1000000</f>
-        <v>360144807111.13776</v>
+        <f>'2021 Estimate'!B1*1000000</f>
+        <v>366849962131.995</v>
       </c>
       <c r="F4" s="53">
         <f>'Revenue Model'!C11*1000000</f>
-        <v>342820470792.16504</v>
+        <v>359341816975.38904</v>
       </c>
       <c r="G4" s="53">
         <f>'Revenue Model'!D11*1000000</f>
-        <v>369613182639.34296</v>
+        <v>383450256668.87274</v>
       </c>
       <c r="H4" s="53">
         <f>'Revenue Model'!E11*1000000</f>
-        <v>448751731589.19061</v>
+        <v>453404908326.84906</v>
       </c>
       <c r="I4" s="53">
         <f>'Revenue Model'!F11*1000000</f>
-        <v>463685637220.21405</v>
+        <v>482438156999.77057</v>
       </c>
       <c r="J4" s="14"/>
     </row>
@@ -5535,24 +4635,24 @@
         <v>169559000000</v>
       </c>
       <c r="E6" s="53">
-        <f>('Revenue Model'!B11-'Revenue Model'!B12)*1000000</f>
-        <v>216086884266.68268</v>
+        <f>'2021 Estimate'!B2*1000000</f>
+        <v>213320953225.897</v>
       </c>
       <c r="F6" s="53">
         <f>('Revenue Model'!C11-'Revenue Model'!C12)*1000000</f>
-        <v>206686023731.11472</v>
+        <v>206937790060.86835</v>
       </c>
       <c r="G6" s="53">
         <f>('Revenue Model'!D11-'Revenue Model'!D12)*1000000</f>
-        <v>219836185025.40399</v>
+        <v>217847987865.60382</v>
       </c>
       <c r="H6" s="53">
         <f>('Revenue Model'!E11-'Revenue Model'!E12)*1000000</f>
-        <v>268151141259.75732</v>
+        <v>257707430882.56396</v>
       </c>
       <c r="I6" s="53">
         <f>('Revenue Model'!F11-'Revenue Model'!F12)*1000000</f>
-        <v>271040585178.76193</v>
+        <v>269965109689.5954</v>
       </c>
       <c r="J6" s="14"/>
     </row>
@@ -5586,23 +4686,23 @@
       </c>
       <c r="E8" s="62">
         <f t="shared" si="0"/>
-        <v>144057922844.45508</v>
+        <v>153529008906.09799</v>
       </c>
       <c r="F8" s="62">
         <f t="shared" si="0"/>
-        <v>136134447061.05032</v>
+        <v>152404026914.52069</v>
       </c>
       <c r="G8" s="62">
         <f t="shared" si="0"/>
-        <v>149776997613.93896</v>
+        <v>165602268803.26892</v>
       </c>
       <c r="H8" s="62">
         <f t="shared" si="0"/>
-        <v>180600590329.43329</v>
+        <v>195697477444.2851</v>
       </c>
       <c r="I8" s="62">
         <f t="shared" si="0"/>
-        <v>192645052041.45212</v>
+        <v>212473047310.17517</v>
       </c>
       <c r="J8" s="14"/>
     </row>
@@ -5624,27 +4724,27 @@
       </c>
       <c r="E9" s="60">
         <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>0.41850626892216297</v>
       </c>
       <c r="F9" s="60">
         <f t="shared" si="1"/>
-        <v>0.39710127795601169</v>
+        <v>0.42411993181678237</v>
       </c>
       <c r="G9" s="60">
         <f t="shared" si="1"/>
-        <v>0.40522634107476274</v>
+        <v>0.43187418947609219</v>
       </c>
       <c r="H9" s="60">
         <f t="shared" si="1"/>
-        <v>0.40245101604368616</v>
+        <v>0.43161746564775016</v>
       </c>
       <c r="I9" s="60">
         <f t="shared" si="1"/>
-        <v>0.41546478169208623</v>
+        <v>0.44041509616801766</v>
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5656,7 +4756,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>30</v>
       </c>
@@ -5670,24 +4770,23 @@
         <v>19916</v>
       </c>
       <c r="E11" s="18">
-        <f>'Revenue Model'!B11*Assumptions!$B$17</f>
-        <v>24849.99169066851</v>
+        <v>22000</v>
       </c>
       <c r="F11" s="18">
         <f>'Revenue Model'!C11*Assumptions!$B$17</f>
-        <v>23654.612484659388</v>
+        <v>24435.243554326455</v>
       </c>
       <c r="G11" s="18">
         <f>'Revenue Model'!D11*Assumptions!$B$17</f>
-        <v>25503.309602114667</v>
+        <v>26074.617453483348</v>
       </c>
       <c r="H11" s="18">
         <f>'Revenue Model'!E11*Assumptions!$B$17</f>
-        <v>30963.869479654153</v>
+        <v>30831.533766225737</v>
       </c>
       <c r="I11" s="18">
         <f>'Revenue Model'!F11*Assumptions!$B$17</f>
-        <v>31994.308968194771</v>
+        <v>32805.794675984398</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -5708,24 +4807,24 @@
         <v>19916000000</v>
       </c>
       <c r="E12" s="53">
-        <f t="shared" si="2"/>
-        <v>24849991690.66851</v>
+        <f>'2021 Estimate'!B4/2*1000000</f>
+        <v>21899500000</v>
       </c>
       <c r="F12" s="53">
-        <f t="shared" si="2"/>
-        <v>23654612484.659389</v>
+        <f>F11*1000000</f>
+        <v>24435243554.326454</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="2"/>
-        <v>25503309602.114666</v>
+        <v>26074617453.483349</v>
       </c>
       <c r="H12" s="53">
         <f t="shared" si="2"/>
-        <v>30963869479.654152</v>
+        <v>30831533766.225739</v>
       </c>
       <c r="I12" s="53">
         <f t="shared" si="2"/>
-        <v>31994308968.194771</v>
+        <v>32805794675.984398</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -5747,27 +4846,27 @@
       </c>
       <c r="E13" s="65">
         <f t="shared" si="3"/>
-        <v>6.900000000000002E-2</v>
+        <v>5.9696067222491406E-2</v>
       </c>
       <c r="F13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I13" s="66">
         <f t="shared" si="3"/>
-        <v>6.9000000000000006E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="67">
         <v>14236</v>
@@ -5779,24 +4878,24 @@
         <v>18752</v>
       </c>
       <c r="E14" s="67">
-        <f>'Revenue Model'!B11*Assumptions!$B$18</f>
-        <v>21968.833233779405</v>
+        <f>'2021 Estimate'!B4/2</f>
+        <v>21899.5</v>
       </c>
       <c r="F14" s="67">
-        <f>'Revenue Model'!C11*Assumptions!$B$18</f>
-        <v>20912.048718322065</v>
+        <f>E14*(1+Assumptions!$B$18)</f>
+        <v>25710.012999999999</v>
       </c>
       <c r="G14" s="67">
-        <f>'Revenue Model'!D11*Assumptions!$B$18</f>
-        <v>22546.404140999919</v>
+        <f>F14*(1+Assumptions!$B$18)</f>
+        <v>30183.555261999998</v>
       </c>
       <c r="H14" s="67">
-        <f>'Revenue Model'!E11*Assumptions!$B$18</f>
-        <v>27373.855626940625</v>
+        <f>G14*(1+Assumptions!$B$18)</f>
+        <v>35435.493877587993</v>
       </c>
       <c r="I14" s="67">
-        <f>'Revenue Model'!F11*Assumptions!$B$18</f>
-        <v>28284.823870433058</v>
+        <f>H14*(1+Assumptions!$B$18)</f>
+        <v>41601.269812288301</v>
       </c>
       <c r="J14" s="14"/>
     </row>
@@ -5818,23 +4917,23 @@
       </c>
       <c r="E15" s="53">
         <f t="shared" si="4"/>
-        <v>21968833233.779404</v>
+        <v>21899500000</v>
       </c>
       <c r="F15" s="53">
         <f t="shared" si="4"/>
-        <v>20912048718.322063</v>
+        <v>25710013000</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>22546404140.99992</v>
+        <v>30183555261.999996</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="4"/>
-        <v>27373855626.940624</v>
+        <v>35435493877.58799</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="4"/>
-        <v>28284823870.43306</v>
+        <v>41601269812.2883</v>
       </c>
       <c r="J15" s="14"/>
     </row>
@@ -5896,7 +4995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>32</v>
       </c>
@@ -5914,23 +5013,23 @@
       </c>
       <c r="E18" s="59">
         <f t="shared" si="5"/>
-        <v>3.1937153536273473E-2</v>
+        <v>3.1353417438439057E-2</v>
       </c>
       <c r="F18" s="59">
         <f t="shared" si="5"/>
-        <v>3.3551088630798503E-2</v>
+        <v>3.2008520736087225E-2</v>
       </c>
       <c r="G18" s="59">
         <f t="shared" si="5"/>
-        <v>3.1119019938266903E-2</v>
+        <v>2.9996068068700019E-2</v>
       </c>
       <c r="H18" s="59">
         <f t="shared" si="5"/>
-        <v>2.5631098869005581E-2</v>
+        <v>2.5368053562641355E-2</v>
       </c>
       <c r="I18" s="59">
         <f t="shared" si="5"/>
-        <v>2.4805599045409851E-2</v>
+        <v>2.3841397769052232E-2</v>
       </c>
       <c r="J18" s="14"/>
     </row>
@@ -5963,24 +5062,24 @@
         <v>77344000000</v>
       </c>
       <c r="E20" s="62">
-        <f t="shared" si="6"/>
-        <v>108741097920.00716</v>
+        <f>E8-E12-E15+E17</f>
+        <v>121232008906.09799</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" si="6"/>
-        <v>103069785858.06886</v>
+        <v>113760770360.19424</v>
       </c>
       <c r="G20" s="62">
         <f t="shared" si="6"/>
-        <v>113229283870.82437</v>
+        <v>120846096087.78558</v>
       </c>
       <c r="H20" s="62">
         <f t="shared" si="6"/>
-        <v>133764865222.83852</v>
+        <v>140932449800.47137</v>
       </c>
       <c r="I20" s="62">
         <f t="shared" si="6"/>
-        <v>143867919202.82428</v>
+        <v>149567982821.90247</v>
       </c>
       <c r="J20" s="14"/>
     </row>
@@ -6013,24 +5112,24 @@
         <v>66288000000</v>
       </c>
       <c r="E22" s="62">
-        <f t="shared" si="7"/>
-        <v>97239097920.007156</v>
+        <f>E20-E17</f>
+        <v>109730008906.09799</v>
       </c>
       <c r="F22" s="62">
         <f t="shared" si="7"/>
-        <v>91567785858.068863</v>
+        <v>102258770360.19424</v>
       </c>
       <c r="G22" s="62">
         <f t="shared" si="7"/>
-        <v>101727283870.82437</v>
+        <v>109344096087.78558</v>
       </c>
       <c r="H22" s="62">
         <f t="shared" si="7"/>
-        <v>122262865222.83852</v>
+        <v>129430449800.47137</v>
       </c>
       <c r="I22" s="62">
         <f t="shared" si="7"/>
-        <v>132365919202.82428</v>
+        <v>138065982821.90247</v>
       </c>
       <c r="J22" s="14"/>
     </row>
@@ -6133,7 +5232,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="61">
-        <f t="shared" ref="B27:I27" si="9">B22+B25</f>
+        <f t="shared" ref="B27:D27" si="9">B22+B25</f>
         <v>72903000000</v>
       </c>
       <c r="C27" s="61">
@@ -6145,24 +5244,24 @@
         <v>67009000000</v>
       </c>
       <c r="E27" s="62">
-        <f t="shared" si="9"/>
-        <v>97239097920.007156</v>
+        <f>E8-E12-E15+E25</f>
+        <v>109730008906.09799</v>
       </c>
       <c r="F27" s="62">
-        <f t="shared" si="9"/>
-        <v>91567785858.068863</v>
+        <f t="shared" ref="F27:I27" si="10">F8-F12-F15+F25</f>
+        <v>102258770360.19424</v>
       </c>
       <c r="G27" s="62">
-        <f t="shared" si="9"/>
-        <v>101727283870.82437</v>
+        <f t="shared" si="10"/>
+        <v>109344096087.78558</v>
       </c>
       <c r="H27" s="62">
-        <f t="shared" si="9"/>
-        <v>122262865222.83852</v>
+        <f t="shared" si="10"/>
+        <v>129430449800.47137</v>
       </c>
       <c r="I27" s="62">
-        <f t="shared" si="9"/>
-        <v>132365919202.82428</v>
+        <f t="shared" si="10"/>
+        <v>138065982821.90247</v>
       </c>
       <c r="J27" s="14"/>
     </row>
@@ -6179,23 +5278,23 @@
       </c>
       <c r="E28" s="73">
         <f>E27*0.15/1000000</f>
-        <v>14585.864688001075</v>
+        <v>16459.501335914698</v>
       </c>
       <c r="F28" s="74">
         <f>F27*Assumptions!$B$19/1000000</f>
-        <v>15566.523595871708</v>
+        <v>17383.990961233023</v>
       </c>
       <c r="G28" s="74">
         <f>G27*Assumptions!$B$19/1000000</f>
-        <v>17293.638258040144</v>
+        <v>18588.496334923551</v>
       </c>
       <c r="H28" s="74">
         <f>H27*Assumptions!$B$19/1000000</f>
-        <v>20784.68708788255</v>
+        <v>22003.176466080135</v>
       </c>
       <c r="I28" s="74">
         <f>I27*Assumptions!$B$19/1000000</f>
-        <v>22502.20626448013</v>
+        <v>23471.217079723418</v>
       </c>
       <c r="J28" s="14"/>
     </row>
@@ -6204,36 +5303,36 @@
         <v>42</v>
       </c>
       <c r="B29" s="52">
-        <f t="shared" ref="B29:I29" si="10">B28*1000000</f>
+        <f t="shared" ref="B29:I29" si="11">B28*1000000</f>
         <v>13372000000</v>
       </c>
       <c r="C29" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10481000000</v>
       </c>
       <c r="D29" s="52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9680000000</v>
       </c>
       <c r="E29" s="53">
-        <f t="shared" si="10"/>
-        <v>14585864688.001074</v>
+        <f>'2021 Estimate'!B7*1000000</f>
+        <v>15760721424.9757</v>
       </c>
       <c r="F29" s="53">
-        <f t="shared" si="10"/>
-        <v>15566523595.871708</v>
+        <f t="shared" si="11"/>
+        <v>17383990961.233025</v>
       </c>
       <c r="G29" s="53">
-        <f t="shared" si="10"/>
-        <v>17293638258.040146</v>
+        <f t="shared" si="11"/>
+        <v>18588496334.92355</v>
       </c>
       <c r="H29" s="53">
-        <f t="shared" si="10"/>
-        <v>20784687087.882549</v>
+        <f t="shared" si="11"/>
+        <v>22003176466.080135</v>
       </c>
       <c r="I29" s="53">
-        <f t="shared" si="10"/>
-        <v>22502206264.480129</v>
+        <f t="shared" si="11"/>
+        <v>23471217079.723419</v>
       </c>
       <c r="J29" s="14"/>
     </row>
@@ -6242,35 +5341,35 @@
         <v>43</v>
       </c>
       <c r="B30" s="19">
-        <f t="shared" ref="B30:I30" si="11">IF(B27&gt;0,B29/B27,0)</f>
+        <f t="shared" ref="B30:I30" si="12">IF(B27&gt;0,B29/B27,0)</f>
         <v>0.18342180705869443</v>
       </c>
       <c r="C30" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1593632161537526</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.14445820710650809</v>
       </c>
       <c r="E30" s="59">
-        <f t="shared" si="11"/>
-        <v>0.15</v>
+        <f t="shared" si="12"/>
+        <v>0.14363182489543966</v>
       </c>
       <c r="F30" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="G30" s="59">
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
-      <c r="G30" s="59">
-        <f t="shared" si="11"/>
-        <v>0.17000000000000004</v>
-      </c>
       <c r="H30" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
       <c r="I30" s="59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.17</v>
       </c>
       <c r="J30" s="68" t="s">
@@ -6306,36 +5405,36 @@
         <v>45</v>
       </c>
       <c r="B33" s="61">
-        <f t="shared" ref="B33:I33" si="12">B27-B29</f>
+        <f t="shared" ref="B33:I33" si="13">B27-B29</f>
         <v>59531000000</v>
       </c>
       <c r="C33" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>55287000000</v>
       </c>
       <c r="D33" s="61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>57329000000</v>
       </c>
       <c r="E33" s="62">
-        <f t="shared" si="12"/>
-        <v>82653233232.006088</v>
+        <f>E27-E29</f>
+        <v>93969287481.122284</v>
       </c>
       <c r="F33" s="62">
-        <f t="shared" si="12"/>
-        <v>76001262262.197159</v>
+        <f t="shared" si="13"/>
+        <v>84874779398.961212</v>
       </c>
       <c r="G33" s="62">
-        <f t="shared" si="12"/>
-        <v>84433645612.784225</v>
+        <f t="shared" si="13"/>
+        <v>90755599752.86203</v>
       </c>
       <c r="H33" s="62">
-        <f t="shared" si="12"/>
-        <v>101478178134.95596</v>
+        <f t="shared" si="13"/>
+        <v>107427273334.39124</v>
       </c>
       <c r="I33" s="62">
-        <f t="shared" si="12"/>
-        <v>109863712938.34415</v>
+        <f t="shared" si="13"/>
+        <v>114594765742.17905</v>
       </c>
       <c r="J33" s="14"/>
     </row>
@@ -6353,24 +5452,24 @@
         <v>75992000000</v>
       </c>
       <c r="E34" s="70">
-        <f>FCF!D10*1.2</f>
-        <v>111136445478.4073</v>
+        <f>FCF!D10*1.1</f>
+        <v>114322734695.90118</v>
       </c>
       <c r="F34" s="70">
-        <f>FCF!E10*1.2</f>
-        <v>102069350651.16992</v>
+        <f>FCF!E10*1.1</f>
+        <v>103324440280.67957</v>
       </c>
       <c r="G34" s="70">
-        <f>FCF!F10*1.2</f>
-        <v>116075044033.90924</v>
+        <f>FCF!F10*1.1</f>
+        <v>113356273251.83575</v>
       </c>
       <c r="H34" s="70">
-        <f>FCF!G10*1.2</f>
-        <v>138654470751.97769</v>
+        <f>FCF!G10*1.1</f>
+        <v>133643936242.02502</v>
       </c>
       <c r="I34" s="70">
-        <f>FCF!H10*1.2</f>
-        <v>146909066618.20993</v>
+        <f>FCF!H10*1.1</f>
+        <v>139870802484.24417</v>
       </c>
       <c r="J34" s="75"/>
     </row>
@@ -6383,23 +5482,23 @@
       <c r="D35" s="17"/>
       <c r="E35" s="70">
         <f>FCF!D10+FCF!D8-E34</f>
-        <v>-8546740913.0678864</v>
+        <v>-416975881.4455719</v>
       </c>
       <c r="F35" s="70">
         <f>FCF!E10+FCF!E8-F34</f>
-        <v>-7607058441.8616486</v>
+        <v>11369065.39276123</v>
       </c>
       <c r="G35" s="70">
         <f>FCF!F10+FCF!F8-G34</f>
-        <v>-9655590672.3182068</v>
+        <v>-614865750.16690063</v>
       </c>
       <c r="H35" s="70">
         <f>FCF!G10+FCF!G8-H34</f>
-        <v>-13561703458.662949</v>
+        <v>-2602073749.2750092</v>
       </c>
       <c r="I35" s="70">
         <f>FCF!H10+FCF!H8-I34</f>
-        <v>-14866031936.368317</v>
+        <v>-3096714998.5676575</v>
       </c>
       <c r="J35" s="75"/>
     </row>
@@ -6441,23 +5540,23 @@
       </c>
       <c r="E37" s="70">
         <f>D37+E35</f>
-        <v>62465259086.932114</v>
+        <v>70595024118.554428</v>
       </c>
       <c r="F37" s="70">
         <f>E37+F35</f>
-        <v>54858200645.070465</v>
+        <v>70606393183.947189</v>
       </c>
       <c r="G37" s="70">
         <f>F37+G35</f>
-        <v>45202609972.752258</v>
+        <v>69991527433.780289</v>
       </c>
       <c r="H37" s="70">
         <f>G37+H35</f>
-        <v>31640906514.08931</v>
+        <v>67389453684.50528</v>
       </c>
       <c r="I37" s="70">
         <f>H37+I35</f>
-        <v>16774874577.720993</v>
+        <v>64292738685.937622</v>
       </c>
       <c r="J37" s="75"/>
     </row>
@@ -6487,24 +5586,24 @@
         <v>17528.2</v>
       </c>
       <c r="E39" s="79">
-        <f>D39*(1-Assumptions!$B$20)*1000000</f>
-        <v>16739431000</v>
+        <f>'2021 Estimate'!B9*1000000</f>
+        <v>16734000000</v>
       </c>
       <c r="F39" s="79">
         <f>E39*(1-Assumptions!$B$20)</f>
-        <v>15986156605</v>
+        <v>16081374000</v>
       </c>
       <c r="G39" s="79">
         <f>F39*(1-Assumptions!$B$20)</f>
-        <v>15266779557.775</v>
+        <v>15454200414</v>
       </c>
       <c r="H39" s="79">
         <f>G39*(1-Assumptions!$B$20)</f>
-        <v>14579774477.675123</v>
+        <v>14851486597.854</v>
       </c>
       <c r="I39" s="79">
         <f>H39*(1-Assumptions!$B$20)</f>
-        <v>13923684626.179743</v>
+        <v>14272278620.537693</v>
       </c>
       <c r="J39" s="14"/>
     </row>
@@ -6537,26 +5636,60 @@
         <v>3.2706724021861913</v>
       </c>
       <c r="E41" s="74">
-        <f>E33/E39</f>
-        <v>4.9376369622125198</v>
+        <f>'2021 Estimate'!B10</f>
+        <v>5.6217958419507799</v>
       </c>
       <c r="F41" s="74">
         <f>F33/F39</f>
-        <v>4.7541922764866573</v>
+        <v>5.2778313220599937</v>
       </c>
       <c r="G41" s="74">
         <f>G33/G39</f>
-        <v>5.5305472443128467</v>
+        <v>5.8725522719794867</v>
       </c>
       <c r="H41" s="74">
         <f>H33/H39</f>
-        <v>6.9602021821628046</v>
+        <v>7.2334356986131061</v>
       </c>
       <c r="I41" s="74">
         <f>I33/I39</f>
-        <v>7.8904195181047836</v>
+        <v>8.0291850228651018</v>
       </c>
       <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="72">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C42" s="72">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D42" s="72">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E42" s="193">
+        <f>'FV Calculation'!D10/Financials!E41</f>
+        <v>25.628323934255729</v>
+      </c>
+      <c r="F42" s="193">
+        <f>'FV Calculation'!E10/Financials!F41</f>
+        <v>26.908381116594501</v>
+      </c>
+      <c r="G42" s="193">
+        <f>'FV Calculation'!F10/Financials!G41</f>
+        <v>28.316994734309116</v>
+      </c>
+      <c r="H42" s="193">
+        <f>'FV Calculation'!G10/Financials!H41</f>
+        <v>28.522624087946419</v>
+      </c>
+      <c r="I42" s="193">
+        <f>'FV Calculation'!H10/Financials!I41</f>
+        <v>28.629407127712703</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6575,12 +5708,12 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E37" sqref="E37"/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="E15" sqref="E15"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6590,14 +5723,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82"/>
@@ -6622,23 +5755,23 @@
         <v>53</v>
       </c>
       <c r="B3" s="85">
-        <v>189264.19990917601</v>
+        <v>192713.94390188501</v>
       </c>
       <c r="C3" s="86">
         <f>$B3*Assumptions!C3</f>
-        <v>165152.27632323501</v>
+        <v>181151.10726777191</v>
       </c>
       <c r="D3" s="86">
         <f>$B3*Assumptions!D3</f>
-        <v>164121.79707735308</v>
+        <v>177296.8283897342</v>
       </c>
       <c r="E3" s="86">
         <f>$B3*Assumptions!E3</f>
-        <v>209264.42223221413</v>
+        <v>213078.71296352902</v>
       </c>
       <c r="F3" s="86">
-        <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.85)</f>
-        <v>182604.50577394784</v>
+        <f>IF(Assumptions!G24=FALSE,E3*Assumptions!C3,(E3*Assumptions!C3)*0.8)</f>
+        <v>200293.99018571727</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6646,23 +5779,23 @@
         <v>54</v>
       </c>
       <c r="B4" s="88">
-        <v>39380.229492070903</v>
+        <v>39786.460703502897</v>
       </c>
       <c r="C4" s="89">
         <f>B4*(1+Assumptions!$B$6)</f>
-        <v>49945.218481148586</v>
+        <v>50460.434031452016</v>
       </c>
       <c r="D4" s="89">
         <f>C4*(1+Assumptions!$B$6)</f>
-        <v>63344.599087009679</v>
+        <v>63998.037463491746</v>
       </c>
       <c r="E4" s="89">
         <f>D4*(1+Assumptions!$B$6)</f>
-        <v>80338.786284586735</v>
+        <v>81167.530121235395</v>
       </c>
       <c r="F4" s="89">
-        <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.85*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.85*E4*(1+Assumptions!$B$6+0.015)))</f>
-        <v>101892.20035657489</v>
+        <f>IF(Assumptions!G26=FALSE,IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6),0.8*E4*(1+Assumptions!$B$6)),IF(Assumptions!G24=FALSE,E4*(1+Assumptions!$B$6+0.015),0.8*E4*(1+Assumptions!$B$6+0.015)))</f>
+        <v>102943.28087388516</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6670,7 +5803,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="152">
-        <v>33601.389420749198</v>
+        <v>35754.823048646002</v>
       </c>
       <c r="C5" s="89">
         <v>25740</v>
@@ -6682,7 +5815,7 @@
         <v>25740</v>
       </c>
       <c r="F5" s="89">
-        <f>IF(Assumptions!G24=FALSE,E5,E5*0.85)</f>
+        <f>IF(Assumptions!G24=FALSE,E5,E5*0.8)</f>
         <v>25740</v>
       </c>
     </row>
@@ -6691,7 +5824,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="152">
-        <v>29432.7804561099</v>
+        <v>30122.333788025699</v>
       </c>
       <c r="C6" s="89">
         <v>21280</v>
@@ -6703,7 +5836,7 @@
         <v>21280</v>
       </c>
       <c r="F6" s="89">
-        <f>IF(Assumptions!G24=FALSE,E6,E6*0.85)</f>
+        <f>IF(Assumptions!G24=FALSE,E6,E6*0.8)</f>
         <v>21280</v>
       </c>
     </row>
@@ -6721,23 +5854,23 @@
       </c>
       <c r="B8" s="88">
         <f>SUM(B3:B6)</f>
-        <v>291678.599278106</v>
+        <v>298377.56144205964</v>
       </c>
       <c r="C8" s="89">
         <f>SUM(C3:C6)</f>
-        <v>262117.4948043836</v>
+        <v>278631.5412992239</v>
       </c>
       <c r="D8" s="89">
         <f>SUM(D3:D6)</f>
-        <v>274486.39616436278</v>
+        <v>288314.86585322593</v>
       </c>
       <c r="E8" s="89">
         <f>SUM(E3:E6)</f>
-        <v>336623.20851680089</v>
+        <v>341266.2430847644</v>
       </c>
       <c r="F8" s="89">
         <f>SUM(F3:F6)</f>
-        <v>331516.70613052271</v>
+        <v>350257.27105960244</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,23 +5878,23 @@
         <v>58</v>
       </c>
       <c r="B9" s="88">
-        <v>68466.207833031804</v>
+        <v>68472.400689935501</v>
       </c>
       <c r="C9" s="89">
         <f>B9*(1+Assumptions!$B$8)</f>
-        <v>80702.97598778145</v>
+        <v>80710.275676165154</v>
       </c>
       <c r="D9" s="89">
         <f>C9*(1+Assumptions!$B$8)</f>
-        <v>95126.786474980152</v>
+        <v>95135.390815646781</v>
       </c>
       <c r="E9" s="89">
         <f>IF(Assumptions!G25=FALSE,D9*(1+Assumptions!$B$8),0.75*D9*(1+Assumptions!$B$8))</f>
-        <v>112128.52307238973</v>
+        <v>112138.66524208464</v>
       </c>
       <c r="F9" s="89">
-        <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.85*E9*(1+Assumptions!$B$8))</f>
-        <v>132168.93108969135</v>
+        <f>IF(Assumptions!G24=FALSE,E9*(1+Assumptions!$B$8),0.8*E9*(1+Assumptions!$B$8))</f>
+        <v>132180.88594016808</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6778,23 +5911,23 @@
       </c>
       <c r="B11" s="88">
         <f>SUM(B8:B9)</f>
-        <v>360144.80711113778</v>
+        <v>366849.96213199513</v>
       </c>
       <c r="C11" s="89">
         <f>SUM(C8:C9)</f>
-        <v>342820.47079216503</v>
+        <v>359341.81697538903</v>
       </c>
       <c r="D11" s="89">
         <f>SUM(D8:D9)</f>
-        <v>369613.18263934297</v>
+        <v>383450.25666887272</v>
       </c>
       <c r="E11" s="89">
         <f>SUM(E8:E9)</f>
-        <v>448751.7315891906</v>
+        <v>453404.90832684905</v>
       </c>
       <c r="F11" s="89">
         <f>SUM(F8:F9)</f>
-        <v>463685.63722021406</v>
+        <v>482438.15699977055</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6802,24 +5935,23 @@
         <v>28</v>
       </c>
       <c r="B12" s="88">
-        <f>B11*0.4</f>
-        <v>144057.92284445511</v>
+        <v>153529.008906098</v>
       </c>
       <c r="C12" s="89">
         <f>C8*Assumptions!$B$11+C9*Assumptions!$B$12</f>
-        <v>136134.4470610503</v>
+        <v>152404.02691452068</v>
       </c>
       <c r="D12" s="89">
         <f>D8*Assumptions!$B$11+D9*Assumptions!$B$12</f>
-        <v>149776.99761393896</v>
+        <v>165602.2688032689</v>
       </c>
       <c r="E12" s="89">
         <f>E8*Assumptions!$B$11+E9*Assumptions!$B$12</f>
-        <v>180600.5903294333</v>
+        <v>195697.47744428509</v>
       </c>
       <c r="F12" s="89">
         <f>IF(Assumptions!G24=FALSE,F8*Assumptions!$B$11+F9*Assumptions!$B$12,F8*Assumptions!$C$11+F9*Assumptions!$C$12)</f>
-        <v>192645.05204145215</v>
+        <v>212473.04731017514</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -6828,23 +5960,23 @@
       </c>
       <c r="B13" s="93">
         <f>B12/B11</f>
-        <v>0.4</v>
+        <v>0.41850626892216281</v>
       </c>
       <c r="C13" s="94">
         <f>C12/C11</f>
-        <v>0.39710127795601169</v>
+        <v>0.42411993181678237</v>
       </c>
       <c r="D13" s="94">
         <f>D12/D11</f>
-        <v>0.40522634107476274</v>
+        <v>0.43187418947609213</v>
       </c>
       <c r="E13" s="94">
         <f>E12/E11</f>
-        <v>0.40245101604368616</v>
+        <v>0.43161746564775016</v>
       </c>
       <c r="F13" s="94">
         <f>F12/F11</f>
-        <v>0.41546478169208628</v>
+        <v>0.44041509616801766</v>
       </c>
     </row>
   </sheetData>
@@ -6887,7 +6019,7 @@
     <row r="1" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112"/>
       <c r="B1" s="113" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="114"/>
       <c r="D1" s="114"/>
@@ -6952,7 +6084,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="126">
         <v>48995</v>
@@ -6984,12 +6116,12 @@
         <v>42127.572016460908</v>
       </c>
       <c r="J4" s="128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="126">
         <v>3956</v>
@@ -7021,12 +6153,12 @@
         <v>4048.890625</v>
       </c>
       <c r="J5" s="128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="126">
         <v>55888</v>
@@ -7058,12 +6190,12 @@
         <v>47169.4375</v>
       </c>
       <c r="J6" s="128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="126">
         <f t="shared" ref="B7:I7" si="1">SUM(B4:B5)-B6</f>
@@ -7113,7 +6245,7 @@
     </row>
     <row r="9" spans="1:10" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="132"/>
       <c r="C9" s="134">
@@ -7176,7 +6308,7 @@
     <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137"/>
       <c r="B1" s="113" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="115" t="s">
@@ -7235,7 +6367,7 @@
     </row>
     <row r="4" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="144" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="134">
         <f>Financials!C33</f>
@@ -7247,23 +6379,23 @@
       </c>
       <c r="D4" s="135">
         <f>Financials!E33</f>
-        <v>82653233232.006088</v>
+        <v>93969287481.122284</v>
       </c>
       <c r="E4" s="135">
         <f>Financials!F33</f>
-        <v>76001262262.197159</v>
+        <v>84874779398.961212</v>
       </c>
       <c r="F4" s="135">
         <f>Financials!G33</f>
-        <v>84433645612.784225</v>
+        <v>90755599752.86203</v>
       </c>
       <c r="G4" s="135">
         <f>Financials!H33</f>
-        <v>101478178134.95596</v>
+        <v>107427273334.39124</v>
       </c>
       <c r="H4" s="135">
         <f>Financials!I33</f>
-        <v>109863712938.34415</v>
+        <v>114594765742.17905</v>
       </c>
       <c r="I4" s="130"/>
     </row>
@@ -7305,7 +6437,7 @@
     </row>
     <row r="6" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="126">
         <v>6068</v>
@@ -7337,7 +6469,7 @@
     </row>
     <row r="7" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="144" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="134">
         <f>'NonCash Working Cap'!C9</f>
@@ -7371,7 +6503,7 @@
     </row>
     <row r="8" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="134">
         <v>11119000000</v>
@@ -7428,23 +6560,23 @@
       </c>
       <c r="D10" s="135">
         <f>D4+D5+D6-D7-D8</f>
-        <v>92613704565.339417</v>
+        <v>103929758814.45561</v>
       </c>
       <c r="E10" s="135">
         <f>E4+E5+E6-E7-E8</f>
-        <v>85057792209.308273</v>
+        <v>93931309346.072327</v>
       </c>
       <c r="F10" s="135">
         <f>F4+F5+F6-F7-F8</f>
-        <v>96729203361.591034</v>
+        <v>103051157501.66885</v>
       </c>
       <c r="G10" s="135">
         <f>G4+G5+G6-G7-G8</f>
-        <v>115545392293.31474</v>
+        <v>121494487492.75002</v>
       </c>
       <c r="H10" s="135">
         <f>H4+H5+H6-H7-H8</f>
-        <v>122424222181.84161</v>
+        <v>127155274985.67651</v>
       </c>
       <c r="I10" s="130"/>
     </row>
@@ -7485,2629 +6617,2629 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="16.33203125" style="165" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="165" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="165" customWidth="1"/>
-    <col min="14" max="16" width="16.33203125" style="165" hidden="1" customWidth="1"/>
-    <col min="17" max="23" width="16.33203125" style="165" customWidth="1"/>
-    <col min="24" max="16384" width="16.33203125" style="165"/>
+    <col min="1" max="10" width="16.33203125" style="161" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="161" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="161" customWidth="1"/>
+    <col min="14" max="16" width="16.33203125" style="161" hidden="1" customWidth="1"/>
+    <col min="17" max="23" width="16.33203125" style="161" customWidth="1"/>
+    <col min="24" max="16384" width="16.33203125" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161">
+      <c r="A1" s="154" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="157">
         <f>AVERAGE(F15:F40)</f>
         <v>0.97276993505983878</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="164">
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="160">
         <f>AVERAGE(V15:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="160"/>
-      <c r="B2" s="158" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="154" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="158" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="158" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="158" t="s">
+      <c r="I2" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="J2" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="K2" s="156"/>
+      <c r="L2" s="154" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="N2" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="158" t="s">
+      <c r="O2" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" s="158" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="158" t="s">
+      <c r="P2" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="N2" s="158" t="s">
+      <c r="Q2" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="O2" s="158" t="s">
+      <c r="R2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="158" t="s">
+      <c r="S2" s="154" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="158" t="s">
+      <c r="T2" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="158" t="s">
+      <c r="U2" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="158" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="158" t="s">
+      <c r="V2" s="154" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166">
+      <c r="A3" s="162">
         <v>40909</v>
       </c>
-      <c r="B3" s="167">
+      <c r="B3" s="163">
         <v>16.302855999999998</v>
       </c>
-      <c r="C3" s="168">
+      <c r="C3" s="164">
         <v>1312.41</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
     </row>
     <row r="4" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="166">
+      <c r="A4" s="162">
         <v>41000</v>
       </c>
-      <c r="B4" s="167">
+      <c r="B4" s="163">
         <v>20.856428000000001</v>
       </c>
-      <c r="C4" s="168">
+      <c r="C4" s="164">
         <v>1397.91</v>
       </c>
-      <c r="D4" s="173">
+      <c r="D4" s="169">
         <f t="shared" ref="D4:E40" si="0">B4/B3-1</f>
         <v>0.27931130594541242</v>
       </c>
-      <c r="E4" s="173">
+      <c r="E4" s="169">
         <f t="shared" si="0"/>
         <v>6.5147324387958117E-2</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
     </row>
     <row r="5" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="166">
+      <c r="A5" s="162">
         <v>41091</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="163">
         <v>21.812857000000001</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="164">
         <v>1379.32</v>
       </c>
-      <c r="D5" s="173">
+      <c r="D5" s="169">
         <f t="shared" si="0"/>
         <v>4.5857756659002158E-2</v>
       </c>
-      <c r="E5" s="173">
+      <c r="E5" s="169">
         <f t="shared" si="0"/>
         <v>-1.3298424075942061E-2</v>
       </c>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
     </row>
     <row r="6" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="166">
+      <c r="A6" s="162">
         <v>41183</v>
       </c>
-      <c r="B6" s="167">
+      <c r="B6" s="163">
         <v>21.261429</v>
       </c>
-      <c r="C6" s="168">
+      <c r="C6" s="164">
         <v>1412.16</v>
       </c>
-      <c r="D6" s="173">
+      <c r="D6" s="169">
         <f t="shared" si="0"/>
         <v>-2.5279953011198897E-2</v>
       </c>
-      <c r="E6" s="173">
+      <c r="E6" s="169">
         <f t="shared" si="0"/>
         <v>2.3808833338166746E-2</v>
       </c>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
     </row>
     <row r="7" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166">
+      <c r="A7" s="162">
         <v>41275</v>
       </c>
-      <c r="B7" s="167">
+      <c r="B7" s="163">
         <v>16.267499999999998</v>
       </c>
-      <c r="C7" s="168">
+      <c r="C7" s="164">
         <v>1498.11</v>
       </c>
-      <c r="D7" s="173">
+      <c r="D7" s="169">
         <f t="shared" si="0"/>
         <v>-0.23488209564841578</v>
       </c>
-      <c r="E7" s="173">
+      <c r="E7" s="169">
         <f t="shared" si="0"/>
         <v>6.0864208021753852E-2</v>
       </c>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167"/>
+      <c r="V7" s="167"/>
     </row>
     <row r="8" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="166">
+      <c r="A8" s="162">
         <v>41365</v>
       </c>
-      <c r="B8" s="167">
+      <c r="B8" s="163">
         <v>15.813571</v>
       </c>
-      <c r="C8" s="168">
+      <c r="C8" s="164">
         <v>1597.57</v>
       </c>
-      <c r="D8" s="173">
+      <c r="D8" s="169">
         <f t="shared" si="0"/>
         <v>-2.7904041801137147E-2</v>
       </c>
-      <c r="E8" s="173">
+      <c r="E8" s="169">
         <f t="shared" si="0"/>
         <v>6.6390318467936194E-2</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
     </row>
     <row r="9" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="166">
+      <c r="A9" s="162">
         <v>41456</v>
       </c>
-      <c r="B9" s="167">
+      <c r="B9" s="163">
         <v>16.161784999999998</v>
       </c>
-      <c r="C9" s="168">
+      <c r="C9" s="164">
         <v>1685.73</v>
       </c>
-      <c r="D9" s="173">
+      <c r="D9" s="169">
         <f t="shared" si="0"/>
         <v>2.2019947297166276E-2</v>
       </c>
-      <c r="E9" s="173">
+      <c r="E9" s="169">
         <f t="shared" si="0"/>
         <v>5.5183810412063439E-2</v>
       </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="171"/>
-      <c r="S9" s="171"/>
-      <c r="T9" s="171"/>
-      <c r="U9" s="171"/>
-      <c r="V9" s="171"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
     </row>
     <row r="10" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="166">
+      <c r="A10" s="162">
         <v>41548</v>
       </c>
-      <c r="B10" s="167">
+      <c r="B10" s="163">
         <v>18.667856</v>
       </c>
-      <c r="C10" s="168">
+      <c r="C10" s="164">
         <v>1756.54</v>
       </c>
-      <c r="D10" s="173">
+      <c r="D10" s="169">
         <f t="shared" si="0"/>
         <v>0.1550615232166499</v>
       </c>
-      <c r="E10" s="173">
+      <c r="E10" s="169">
         <f t="shared" si="0"/>
         <v>4.2005540626316229E-2</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="172"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="171"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="171"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+      <c r="V10" s="167"/>
     </row>
     <row r="11" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="166">
+      <c r="A11" s="162">
         <v>41640</v>
       </c>
-      <c r="B11" s="167">
+      <c r="B11" s="163">
         <v>17.878571000000001</v>
       </c>
-      <c r="C11" s="168">
+      <c r="C11" s="164">
         <v>1782.59</v>
       </c>
-      <c r="D11" s="173">
+      <c r="D11" s="169">
         <f t="shared" si="0"/>
         <v>-4.228043113253066E-2</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="169">
         <f t="shared" si="0"/>
         <v>1.4830291368258086E-2</v>
       </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="171"/>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171">
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167">
         <v>84</v>
       </c>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="171"/>
-      <c r="V11" s="171"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+      <c r="V11" s="167"/>
     </row>
     <row r="12" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="166">
+      <c r="A12" s="162">
         <v>41730</v>
       </c>
-      <c r="B12" s="167">
+      <c r="B12" s="163">
         <v>21.074642000000001</v>
       </c>
-      <c r="C12" s="168">
+      <c r="C12" s="164">
         <v>1883.95</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="169">
         <f t="shared" si="0"/>
         <v>0.17876546173628749</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="169">
         <f t="shared" si="0"/>
         <v>5.6861084152833863E-2</v>
       </c>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="171"/>
-      <c r="N12" s="171"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171">
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167">
         <v>85</v>
       </c>
-      <c r="S12" s="171"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="171"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="166">
+      <c r="A13" s="162">
         <v>41821</v>
       </c>
-      <c r="B13" s="167">
+      <c r="B13" s="163">
         <v>23.9</v>
       </c>
-      <c r="C13" s="168">
+      <c r="C13" s="164">
         <v>1930.67</v>
       </c>
-      <c r="D13" s="173">
+      <c r="D13" s="169">
         <f t="shared" si="0"/>
         <v>0.13406434140138646</v>
       </c>
-      <c r="E13" s="173">
+      <c r="E13" s="169">
         <f t="shared" si="0"/>
         <v>2.4798959632686746E-2</v>
       </c>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="172"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171">
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167">
         <v>100</v>
       </c>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
     </row>
     <row r="14" spans="1:22" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="166">
+      <c r="A14" s="162">
         <v>41913</v>
       </c>
-      <c r="B14" s="167">
+      <c r="B14" s="163">
         <v>27</v>
       </c>
-      <c r="C14" s="168">
+      <c r="C14" s="164">
         <v>2018.05</v>
       </c>
-      <c r="D14" s="173">
+      <c r="D14" s="169">
         <f t="shared" si="0"/>
         <v>0.12970711297071147</v>
       </c>
-      <c r="E14" s="173">
+      <c r="E14" s="169">
         <f t="shared" si="0"/>
         <v>4.5258899760186821E-2</v>
       </c>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="171">
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167">
         <v>28987</v>
       </c>
-      <c r="O14" s="171">
+      <c r="O14" s="167">
         <v>0</v>
       </c>
-      <c r="P14" s="171">
+      <c r="P14" s="167">
         <v>6308</v>
       </c>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="171">
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167">
         <v>115</v>
       </c>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="165"/>
     </row>
     <row r="15" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="174">
+      <c r="A15" s="170">
         <v>42005</v>
       </c>
-      <c r="B15" s="167">
+      <c r="B15" s="163">
         <v>29.290001</v>
       </c>
-      <c r="C15" s="168">
+      <c r="C15" s="164">
         <v>1994.99</v>
       </c>
-      <c r="D15" s="173">
+      <c r="D15" s="169">
         <f t="shared" si="0"/>
         <v>8.4814851851851891E-2</v>
       </c>
-      <c r="E15" s="173">
+      <c r="E15" s="169">
         <f t="shared" si="0"/>
         <v>-1.1426872475904903E-2</v>
       </c>
-      <c r="F15" s="171">
+      <c r="F15" s="167">
         <f>_xlfn.COVARIANCE.P(D4:D15,E4:E15)/VARP(E4:E15)</f>
         <v>0.14304398217391678</v>
       </c>
-      <c r="G15" s="173">
+      <c r="G15" s="169">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="H15" s="173">
+      <c r="H15" s="169">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="I15" s="173">
+      <c r="I15" s="169">
         <v>2.27596774193548E-2</v>
       </c>
-      <c r="J15" s="173">
+      <c r="J15" s="169">
         <f t="shared" ref="J15:J40" si="1">I15+F15*G15</f>
         <v>3.102761958900719E-2</v>
       </c>
-      <c r="K15" s="171">
+      <c r="K15" s="167">
         <v>5824748000</v>
       </c>
-      <c r="L15" s="172">
+      <c r="L15" s="168">
         <f t="shared" ref="L15:L37" si="2">K15*4</f>
         <v>23298992000</v>
       </c>
-      <c r="M15" s="175">
+      <c r="M15" s="171">
         <f t="shared" ref="M15:M40" si="3">L15*B15</f>
         <v>682427498978.99194</v>
       </c>
-      <c r="N15" s="171">
+      <c r="N15" s="167">
         <v>32504</v>
       </c>
-      <c r="O15" s="171">
+      <c r="O15" s="167">
         <v>0</v>
       </c>
-      <c r="P15" s="171">
+      <c r="P15" s="167">
         <v>3899</v>
       </c>
-      <c r="Q15" s="175">
+      <c r="Q15" s="171">
         <f t="shared" ref="Q15:Q40" si="4">SUM(N15:P15)*1000000</f>
         <v>36403000000</v>
       </c>
-      <c r="R15" s="171">
+      <c r="R15" s="167">
         <v>131</v>
       </c>
-      <c r="S15" s="176">
+      <c r="S15" s="172">
         <f t="shared" ref="S15:S40" si="5">SUM(R12:R15)/SUM(N15:P15)</f>
         <v>1.1839683542565173E-2</v>
       </c>
-      <c r="T15" s="176">
+      <c r="T15" s="172">
         <f t="shared" ref="T15:T40" si="6">M15/(M15+Q15)</f>
         <v>0.94935801965594691</v>
       </c>
-      <c r="U15" s="176">
+      <c r="U15" s="172">
         <f t="shared" ref="U15:U40" si="7">1-T15</f>
         <v>5.0641980344053095E-2</v>
       </c>
-      <c r="V15" s="176">
+      <c r="V15" s="172">
         <f t="shared" ref="V15:V40" si="8">(T15*J15)+(U15*S15)</f>
         <v>3.0055904508900323E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="174">
+      <c r="A16" s="170">
         <v>42095</v>
       </c>
-      <c r="B16" s="167">
+      <c r="B16" s="163">
         <v>31.287500000000001</v>
       </c>
-      <c r="C16" s="168">
+      <c r="C16" s="164">
         <v>2085.5100000000002</v>
       </c>
-      <c r="D16" s="173">
+      <c r="D16" s="169">
         <f t="shared" si="0"/>
         <v>6.8197300505384195E-2</v>
       </c>
-      <c r="E16" s="173">
+      <c r="E16" s="169">
         <f t="shared" si="0"/>
         <v>4.537366102085727E-2</v>
       </c>
-      <c r="F16" s="171">
+      <c r="F16" s="167">
         <f t="shared" ref="F16:F40" si="9">_xlfn.COVARIANCE.P(D5:D16,E5:E16)/VARP(E5:E16)</f>
         <v>-0.69181960234540973</v>
       </c>
-      <c r="G16" s="173">
+      <c r="G16" s="169">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="H16" s="173">
+      <c r="H16" s="169">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I16" s="173">
+      <c r="I16" s="169">
         <v>1.9688524590163899E-2</v>
       </c>
-      <c r="J16" s="173">
+      <c r="J16" s="169">
         <f t="shared" si="1"/>
         <v>-2.0852104107277111E-2</v>
       </c>
-      <c r="K16" s="171">
+      <c r="K16" s="167">
         <v>5761030000</v>
       </c>
-      <c r="L16" s="172">
+      <c r="L16" s="168">
         <f t="shared" si="2"/>
         <v>23044120000</v>
       </c>
-      <c r="M16" s="175">
+      <c r="M16" s="171">
         <f t="shared" si="3"/>
         <v>720992904500</v>
       </c>
-      <c r="N16" s="171">
+      <c r="N16" s="167">
         <v>40072</v>
       </c>
-      <c r="O16" s="171">
+      <c r="O16" s="167">
         <v>0</v>
       </c>
-      <c r="P16" s="171">
+      <c r="P16" s="167">
         <v>3799</v>
       </c>
-      <c r="Q16" s="175">
+      <c r="Q16" s="171">
         <f t="shared" si="4"/>
         <v>43871000000</v>
       </c>
-      <c r="R16" s="171">
+      <c r="R16" s="167">
         <v>163</v>
       </c>
-      <c r="S16" s="176">
+      <c r="S16" s="172">
         <f t="shared" si="5"/>
         <v>1.1602197351325477E-2</v>
       </c>
-      <c r="T16" s="176">
+      <c r="T16" s="172">
         <f t="shared" si="6"/>
         <v>0.94264208345839129</v>
       </c>
-      <c r="U16" s="176">
+      <c r="U16" s="172">
         <f t="shared" si="7"/>
         <v>5.7357916541608711E-2</v>
       </c>
-      <c r="V16" s="176">
+      <c r="V16" s="172">
         <f t="shared" si="8"/>
         <v>-1.8990592992798375E-2</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="174">
+      <c r="A17" s="170">
         <v>42186</v>
       </c>
-      <c r="B17" s="167">
+      <c r="B17" s="163">
         <v>30.325001</v>
       </c>
-      <c r="C17" s="168">
+      <c r="C17" s="164">
         <v>2103.84</v>
       </c>
-      <c r="D17" s="173">
+      <c r="D17" s="169">
         <f t="shared" si="0"/>
         <v>-3.0763052337195451E-2</v>
       </c>
-      <c r="E17" s="173">
+      <c r="E17" s="169">
         <f t="shared" si="0"/>
         <v>8.789217026051066E-3</v>
       </c>
-      <c r="F17" s="171">
+      <c r="F17" s="167">
         <f t="shared" si="9"/>
         <v>-0.52248409260401285</v>
       </c>
-      <c r="G17" s="173">
+      <c r="G17" s="169">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="H17" s="173">
+      <c r="H17" s="169">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="I17" s="173">
+      <c r="I17" s="169">
         <v>2.164375E-2</v>
       </c>
-      <c r="J17" s="173">
+      <c r="J17" s="169">
         <f t="shared" si="1"/>
         <v>-8.7125757802931462E-3</v>
       </c>
-      <c r="K17" s="171">
+      <c r="K17" s="167">
         <v>5702722000</v>
       </c>
-      <c r="L17" s="172">
+      <c r="L17" s="168">
         <f t="shared" si="2"/>
         <v>22810888000</v>
       </c>
-      <c r="M17" s="175">
+      <c r="M17" s="171">
         <f t="shared" si="3"/>
         <v>691740201410.88806</v>
       </c>
-      <c r="N17" s="171">
+      <c r="N17" s="167">
         <v>47419</v>
       </c>
-      <c r="O17" s="171">
+      <c r="O17" s="167">
         <v>2500</v>
       </c>
-      <c r="P17" s="171">
+      <c r="P17" s="167">
         <v>4499</v>
       </c>
-      <c r="Q17" s="175">
+      <c r="Q17" s="171">
         <f t="shared" si="4"/>
         <v>54418000000</v>
       </c>
-      <c r="R17" s="171">
+      <c r="R17" s="167">
         <v>201</v>
       </c>
-      <c r="S17" s="176">
+      <c r="S17" s="172">
         <f t="shared" si="5"/>
         <v>1.1209526259693485E-2</v>
       </c>
-      <c r="T17" s="176">
+      <c r="T17" s="172">
         <f t="shared" si="6"/>
         <v>0.92706908548736366</v>
       </c>
-      <c r="U17" s="176">
+      <c r="U17" s="172">
         <f t="shared" si="7"/>
         <v>7.2930914512636336E-2</v>
       </c>
-      <c r="V17" s="176">
+      <c r="V17" s="172">
         <f t="shared" si="8"/>
         <v>-7.2596386595028635E-3</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="174">
+      <c r="A18" s="170">
         <v>42278</v>
       </c>
-      <c r="B18" s="167">
+      <c r="B18" s="163">
         <v>29.875</v>
       </c>
-      <c r="C18" s="168">
+      <c r="C18" s="164">
         <v>2079.36</v>
       </c>
-      <c r="D18" s="173">
+      <c r="D18" s="169">
         <f t="shared" si="0"/>
         <v>-1.4839274036627437E-2</v>
       </c>
-      <c r="E18" s="173">
+      <c r="E18" s="169">
         <f t="shared" si="0"/>
         <v>-1.1635865845311399E-2</v>
       </c>
-      <c r="F18" s="171">
+      <c r="F18" s="167">
         <f t="shared" si="9"/>
         <v>-0.19667283185881096</v>
       </c>
-      <c r="G18" s="173">
+      <c r="G18" s="169">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="H18" s="173">
+      <c r="H18" s="169">
         <v>6.25E-2</v>
       </c>
-      <c r="I18" s="173">
+      <c r="I18" s="169">
         <v>2.2231250000000001E-2</v>
       </c>
-      <c r="J18" s="173">
+      <c r="J18" s="169">
         <f t="shared" si="1"/>
         <v>9.1918412477608354E-3</v>
       </c>
-      <c r="K18" s="171">
+      <c r="K18" s="167">
         <v>5575331000</v>
       </c>
-      <c r="L18" s="172">
+      <c r="L18" s="168">
         <f t="shared" si="2"/>
         <v>22301324000</v>
       </c>
-      <c r="M18" s="175">
+      <c r="M18" s="171">
         <f t="shared" si="3"/>
         <v>666252054500</v>
       </c>
-      <c r="N18" s="171">
+      <c r="N18" s="167">
         <v>53463</v>
       </c>
-      <c r="O18" s="171">
+      <c r="O18" s="167">
         <v>2500</v>
       </c>
-      <c r="P18" s="171">
+      <c r="P18" s="167">
         <v>8499</v>
       </c>
-      <c r="Q18" s="175">
+      <c r="Q18" s="171">
         <f t="shared" si="4"/>
         <v>64462000000</v>
       </c>
-      <c r="R18" s="171">
+      <c r="R18" s="167">
         <v>238</v>
       </c>
-      <c r="S18" s="176">
+      <c r="S18" s="172">
         <f t="shared" si="5"/>
         <v>1.1371040302814061E-2</v>
       </c>
-      <c r="T18" s="176">
+      <c r="T18" s="172">
         <f t="shared" si="6"/>
         <v>0.91178218127457678</v>
       </c>
-      <c r="U18" s="176">
+      <c r="U18" s="172">
         <f t="shared" si="7"/>
         <v>8.8217818725423225E-2</v>
       </c>
-      <c r="V18" s="176">
+      <c r="V18" s="172">
         <f t="shared" si="8"/>
         <v>9.3840854349661346E-3</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="174">
+      <c r="A19" s="170">
         <v>42370</v>
       </c>
-      <c r="B19" s="167">
+      <c r="B19" s="163">
         <v>24.334999</v>
       </c>
-      <c r="C19" s="168">
+      <c r="C19" s="164">
         <v>1940.24</v>
       </c>
-      <c r="D19" s="173">
+      <c r="D19" s="169">
         <f t="shared" si="0"/>
         <v>-0.18543936401673644</v>
       </c>
-      <c r="E19" s="173">
+      <c r="E19" s="169">
         <f t="shared" si="0"/>
         <v>-6.6905201600492514E-2</v>
       </c>
-      <c r="F19" s="171">
+      <c r="F19" s="167">
         <f t="shared" si="9"/>
         <v>1.7610033475811113</v>
       </c>
-      <c r="G19" s="173">
+      <c r="G19" s="169">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="H19" s="173">
+      <c r="H19" s="169">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="I19" s="173">
+      <c r="I19" s="169">
         <v>2.19048387096774E-2</v>
       </c>
-      <c r="J19" s="173">
+      <c r="J19" s="169">
         <f t="shared" si="1"/>
         <v>0.1296782435816414</v>
       </c>
-      <c r="K19" s="171">
+      <c r="K19" s="167">
         <v>5544583000</v>
       </c>
-      <c r="L19" s="172">
+      <c r="L19" s="168">
         <f t="shared" si="2"/>
         <v>22178332000</v>
       </c>
-      <c r="M19" s="175">
+      <c r="M19" s="171">
         <f t="shared" si="3"/>
         <v>539709687041.66797</v>
       </c>
-      <c r="N19" s="171">
+      <c r="N19" s="167">
         <v>53204</v>
       </c>
-      <c r="O19" s="171">
+      <c r="O19" s="167">
         <v>2500</v>
       </c>
-      <c r="P19" s="171">
+      <c r="P19" s="167">
         <v>7259</v>
       </c>
-      <c r="Q19" s="175">
+      <c r="Q19" s="171">
         <f t="shared" si="4"/>
         <v>62963000000</v>
       </c>
-      <c r="R19" s="171">
+      <c r="R19" s="167">
         <v>276</v>
       </c>
-      <c r="S19" s="176">
+      <c r="S19" s="172">
         <f t="shared" si="5"/>
         <v>1.3944697679589601E-2</v>
       </c>
-      <c r="T19" s="176">
+      <c r="T19" s="172">
         <f t="shared" si="6"/>
         <v>0.89552703921416166</v>
       </c>
-      <c r="U19" s="176">
+      <c r="U19" s="172">
         <f t="shared" si="7"/>
         <v>0.10447296078583834</v>
       </c>
-      <c r="V19" s="176">
+      <c r="V19" s="172">
         <f t="shared" si="8"/>
         <v>0.11758721737901032</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174">
+      <c r="A20" s="170">
         <v>42461</v>
       </c>
-      <c r="B20" s="167">
+      <c r="B20" s="163">
         <v>23.434999000000001</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="173">
         <v>2065.3000000000002</v>
       </c>
-      <c r="D20" s="173">
+      <c r="D20" s="169">
         <f t="shared" si="0"/>
         <v>-3.6983769754829199E-2</v>
       </c>
-      <c r="E20" s="173">
+      <c r="E20" s="169">
         <f t="shared" si="0"/>
         <v>6.4455943594607046E-2</v>
       </c>
-      <c r="F20" s="171">
+      <c r="F20" s="167">
         <f t="shared" si="9"/>
         <v>1.7635323202262723</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="169">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="H20" s="173">
+      <c r="H20" s="169">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I20" s="173">
+      <c r="I20" s="169">
         <v>1.9142622950819699E-2</v>
       </c>
-      <c r="J20" s="173">
+      <c r="J20" s="169">
         <f t="shared" si="1"/>
         <v>0.1291870397329391</v>
       </c>
-      <c r="K20" s="171">
+      <c r="K20" s="167">
         <v>5477425000</v>
       </c>
-      <c r="L20" s="172">
+      <c r="L20" s="168">
         <f t="shared" si="2"/>
         <v>21909700000</v>
       </c>
-      <c r="M20" s="175">
+      <c r="M20" s="171">
         <f t="shared" si="3"/>
         <v>513453797590.30005</v>
       </c>
-      <c r="N20" s="171">
+      <c r="N20" s="167">
         <v>69374</v>
       </c>
-      <c r="O20" s="171">
+      <c r="O20" s="167">
         <v>2500</v>
       </c>
-      <c r="P20" s="171">
+      <c r="P20" s="167">
         <v>7998</v>
       </c>
-      <c r="Q20" s="175">
+      <c r="Q20" s="171">
         <f t="shared" si="4"/>
         <v>79872000000</v>
       </c>
-      <c r="R20" s="171">
+      <c r="R20" s="167">
         <v>321</v>
       </c>
-      <c r="S20" s="176">
+      <c r="S20" s="172">
         <f t="shared" si="5"/>
         <v>1.2970753205128206E-2</v>
       </c>
-      <c r="T20" s="176">
+      <c r="T20" s="172">
         <f t="shared" si="6"/>
         <v>0.86538255992847835</v>
       </c>
-      <c r="U20" s="176">
+      <c r="U20" s="172">
         <f t="shared" si="7"/>
         <v>0.13461744007152165</v>
       </c>
-      <c r="V20" s="176">
+      <c r="V20" s="172">
         <f t="shared" si="8"/>
         <v>0.11354230074594673</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="174">
+      <c r="A21" s="170">
         <v>42552</v>
       </c>
-      <c r="B21" s="167">
+      <c r="B21" s="163">
         <v>26.052499999999998</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="173">
         <v>2173.6</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D21" s="169">
         <f t="shared" si="0"/>
         <v>0.11169196124138936</v>
       </c>
-      <c r="E21" s="173">
+      <c r="E21" s="169">
         <f t="shared" si="0"/>
         <v>5.2437902483900567E-2</v>
       </c>
-      <c r="F21" s="171">
+      <c r="F21" s="167">
         <f t="shared" si="9"/>
         <v>1.9579108946583634</v>
       </c>
-      <c r="G21" s="173">
+      <c r="G21" s="169">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="H21" s="173">
+      <c r="H21" s="169">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="I21" s="173">
+      <c r="I21" s="169">
         <v>1.7501562500000001E-2</v>
       </c>
-      <c r="J21" s="173">
+      <c r="J21" s="169">
         <f t="shared" si="1"/>
         <v>0.1402625755950794</v>
       </c>
-      <c r="K21" s="171">
+      <c r="K21" s="167">
         <v>5388443000</v>
       </c>
-      <c r="L21" s="172">
+      <c r="L21" s="168">
         <f t="shared" si="2"/>
         <v>21553772000</v>
       </c>
-      <c r="M21" s="175">
+      <c r="M21" s="171">
         <f t="shared" si="3"/>
         <v>561529645030</v>
       </c>
-      <c r="N21" s="171">
+      <c r="N21" s="167">
         <v>68939</v>
       </c>
-      <c r="O21" s="171">
+      <c r="O21" s="167">
         <v>3500</v>
       </c>
-      <c r="P21" s="171">
+      <c r="P21" s="167">
         <v>12496</v>
       </c>
-      <c r="Q21" s="175">
+      <c r="Q21" s="171">
         <f t="shared" si="4"/>
         <v>84935000000</v>
       </c>
-      <c r="R21" s="171">
+      <c r="R21" s="167">
         <v>409</v>
       </c>
-      <c r="S21" s="176">
+      <c r="S21" s="172">
         <f t="shared" si="5"/>
         <v>1.4646494378053806E-2</v>
       </c>
-      <c r="T21" s="176">
+      <c r="T21" s="172">
         <f t="shared" si="6"/>
         <v>0.86861617158343052</v>
       </c>
-      <c r="U21" s="176">
+      <c r="U21" s="172">
         <f t="shared" si="7"/>
         <v>0.13138382841656948</v>
       </c>
-      <c r="V21" s="176">
+      <c r="V21" s="172">
         <f t="shared" si="8"/>
         <v>0.12375865393409985</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="174">
+      <c r="A22" s="170">
         <v>42644</v>
       </c>
-      <c r="B22" s="167">
+      <c r="B22" s="163">
         <v>28.385000000000002</v>
       </c>
-      <c r="C22" s="168">
+      <c r="C22" s="164">
         <v>2126.15</v>
       </c>
-      <c r="D22" s="173">
+      <c r="D22" s="169">
         <f t="shared" si="0"/>
         <v>8.9530755205834422E-2</v>
       </c>
-      <c r="E22" s="173">
+      <c r="E22" s="169">
         <f t="shared" si="0"/>
         <v>-2.1830143540669811E-2</v>
       </c>
-      <c r="F22" s="171">
+      <c r="F22" s="167">
         <f t="shared" si="9"/>
         <v>1.5602175386937238</v>
       </c>
-      <c r="G22" s="173">
+      <c r="G22" s="169">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H22" s="173">
+      <c r="H22" s="169">
         <v>5.21E-2</v>
       </c>
-      <c r="I22" s="173">
+      <c r="I22" s="169">
         <v>1.5643750000000001E-2</v>
       </c>
-      <c r="J22" s="173">
+      <c r="J22" s="169">
         <f t="shared" si="1"/>
         <v>0.11175315038353338</v>
       </c>
-      <c r="K22" s="171">
+      <c r="K22" s="167">
         <v>5332313000</v>
       </c>
-      <c r="L22" s="172">
+      <c r="L22" s="168">
         <f t="shared" si="2"/>
         <v>21329252000</v>
       </c>
-      <c r="M22" s="175">
+      <c r="M22" s="171">
         <f t="shared" si="3"/>
         <v>605430818020</v>
       </c>
-      <c r="N22" s="171">
+      <c r="N22" s="167">
         <v>75427</v>
       </c>
-      <c r="O22" s="171">
+      <c r="O22" s="167">
         <v>3500</v>
       </c>
-      <c r="P22" s="171">
+      <c r="P22" s="167">
         <v>8105</v>
       </c>
-      <c r="Q22" s="175">
+      <c r="Q22" s="171">
         <f t="shared" si="4"/>
         <v>87032000000</v>
       </c>
-      <c r="R22" s="171">
+      <c r="R22" s="167">
         <v>450</v>
       </c>
-      <c r="S22" s="176">
+      <c r="S22" s="172">
         <f t="shared" si="5"/>
         <v>1.6729478812390845E-2</v>
       </c>
-      <c r="T22" s="176">
+      <c r="T22" s="172">
         <f t="shared" si="6"/>
         <v>0.87431527334730297</v>
       </c>
-      <c r="U22" s="176">
+      <c r="U22" s="172">
         <f t="shared" si="7"/>
         <v>0.12568472665269703</v>
       </c>
-      <c r="V22" s="176">
+      <c r="V22" s="172">
         <f t="shared" si="8"/>
         <v>9.9810126196578683E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="174">
+      <c r="A23" s="170">
         <v>42736</v>
       </c>
-      <c r="B23" s="167">
+      <c r="B23" s="163">
         <v>30.337499999999999</v>
       </c>
-      <c r="C23" s="168">
+      <c r="C23" s="164">
         <v>2278.87</v>
       </c>
-      <c r="D23" s="173">
+      <c r="D23" s="169">
         <f t="shared" si="0"/>
         <v>6.8786330808525475E-2</v>
       </c>
-      <c r="E23" s="173">
+      <c r="E23" s="169">
         <f t="shared" si="0"/>
         <v>7.1829362933000906E-2</v>
       </c>
-      <c r="F23" s="171">
+      <c r="F23" s="167">
         <f t="shared" si="9"/>
         <v>1.3864114460700145</v>
       </c>
-      <c r="G23" s="173">
+      <c r="G23" s="169">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H23" s="173">
+      <c r="H23" s="169">
         <v>5.5399999999999998E-2</v>
       </c>
-      <c r="I23" s="173">
+      <c r="I23" s="169">
         <v>2.1386885245901599E-2</v>
       </c>
-      <c r="J23" s="173">
+      <c r="J23" s="169">
         <f t="shared" si="1"/>
         <v>0.10027369652728542</v>
       </c>
-      <c r="K23" s="171">
+      <c r="K23" s="167">
         <v>5246540000</v>
       </c>
-      <c r="L23" s="172">
+      <c r="L23" s="168">
         <f t="shared" si="2"/>
         <v>20986160000</v>
       </c>
-      <c r="M23" s="175">
+      <c r="M23" s="171">
         <f t="shared" si="3"/>
         <v>636667629000</v>
       </c>
-      <c r="N23" s="171">
+      <c r="N23" s="167">
         <v>73557</v>
       </c>
-      <c r="O23" s="171">
+      <c r="O23" s="167">
         <v>3499</v>
       </c>
-      <c r="P23" s="171">
+      <c r="P23" s="167">
         <v>10493</v>
       </c>
-      <c r="Q23" s="175">
+      <c r="Q23" s="171">
         <f t="shared" si="4"/>
         <v>87549000000</v>
       </c>
-      <c r="R23" s="171">
+      <c r="R23" s="167">
         <v>525</v>
       </c>
-      <c r="S23" s="176">
+      <c r="S23" s="172">
         <f t="shared" si="5"/>
         <v>1.9474808393014197E-2</v>
       </c>
-      <c r="T23" s="176">
+      <c r="T23" s="172">
         <f t="shared" si="6"/>
         <v>0.87911213786835041</v>
       </c>
-      <c r="U23" s="176">
+      <c r="U23" s="172">
         <f t="shared" si="7"/>
         <v>0.12088786213164959</v>
       </c>
-      <c r="V23" s="176">
+      <c r="V23" s="172">
         <f t="shared" si="8"/>
         <v>9.0506091678119072E-2</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174">
+      <c r="A24" s="170">
         <v>42826</v>
       </c>
-      <c r="B24" s="167">
+      <c r="B24" s="163">
         <v>35.912497999999999</v>
       </c>
-      <c r="C24" s="177">
+      <c r="C24" s="173">
         <v>2384.1999999999998</v>
       </c>
-      <c r="D24" s="173">
+      <c r="D24" s="169">
         <f t="shared" si="0"/>
         <v>0.18376590028842199</v>
       </c>
-      <c r="E24" s="173">
+      <c r="E24" s="169">
         <f t="shared" si="0"/>
         <v>4.6220275838463776E-2</v>
       </c>
-      <c r="F24" s="171">
+      <c r="F24" s="167">
         <f t="shared" si="9"/>
         <v>1.3683721117351479</v>
       </c>
-      <c r="G24" s="173">
+      <c r="G24" s="169">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H24" s="173">
+      <c r="H24" s="169">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="I24" s="173">
+      <c r="I24" s="169">
         <v>2.4466129032258099E-2</v>
       </c>
-      <c r="J24" s="173">
+      <c r="J24" s="169">
         <f t="shared" si="1"/>
         <v>9.8084548643609062E-2</v>
       </c>
-      <c r="K24" s="171">
+      <c r="K24" s="167">
         <v>5213840000</v>
       </c>
-      <c r="L24" s="172">
+      <c r="L24" s="168">
         <f t="shared" si="2"/>
         <v>20855360000</v>
       </c>
-      <c r="M24" s="175">
+      <c r="M24" s="171">
         <f t="shared" si="3"/>
         <v>748968074289.28003</v>
       </c>
-      <c r="N24" s="171">
+      <c r="N24" s="167">
         <v>84531</v>
       </c>
-      <c r="O24" s="171">
+      <c r="O24" s="167">
         <v>3999</v>
       </c>
-      <c r="P24" s="171">
+      <c r="P24" s="167">
         <v>9992</v>
       </c>
-      <c r="Q24" s="175">
+      <c r="Q24" s="171">
         <f t="shared" si="4"/>
         <v>98522000000</v>
       </c>
-      <c r="R24" s="171">
+      <c r="R24" s="167">
         <v>530</v>
       </c>
-      <c r="S24" s="176">
+      <c r="S24" s="172">
         <f t="shared" si="5"/>
         <v>1.9427133026126146E-2</v>
       </c>
-      <c r="T24" s="176">
+      <c r="T24" s="172">
         <f t="shared" si="6"/>
         <v>0.88374849099840813</v>
       </c>
-      <c r="U24" s="176">
+      <c r="U24" s="172">
         <f t="shared" si="7"/>
         <v>0.11625150900159187</v>
       </c>
-      <c r="V24" s="176">
+      <c r="V24" s="172">
         <f t="shared" si="8"/>
         <v>8.8940505383911295E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="174">
+      <c r="A25" s="170">
         <v>42917</v>
       </c>
-      <c r="B25" s="167">
+      <c r="B25" s="163">
         <v>37.182499</v>
       </c>
-      <c r="C25" s="177">
+      <c r="C25" s="173">
         <v>2470.3000000000002</v>
       </c>
-      <c r="D25" s="173">
+      <c r="D25" s="169">
         <f t="shared" si="0"/>
         <v>3.5363761106230962E-2</v>
       </c>
-      <c r="E25" s="173">
+      <c r="E25" s="169">
         <f t="shared" si="0"/>
         <v>3.6112742219612581E-2</v>
       </c>
-      <c r="F25" s="171">
+      <c r="F25" s="167">
         <f t="shared" si="9"/>
         <v>1.3281190628928796</v>
       </c>
-      <c r="G25" s="173">
+      <c r="G25" s="169">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="H25" s="173">
+      <c r="H25" s="169">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="I25" s="173">
+      <c r="I25" s="169">
         <v>2.2609523809523802E-2</v>
       </c>
-      <c r="J25" s="173">
+      <c r="J25" s="169">
         <f t="shared" si="1"/>
         <v>9.0742031735928527E-2</v>
       </c>
-      <c r="K25" s="171">
+      <c r="K25" s="167">
         <v>5165228000</v>
       </c>
-      <c r="L25" s="172">
+      <c r="L25" s="168">
         <f t="shared" si="2"/>
         <v>20660912000</v>
       </c>
-      <c r="M25" s="175">
+      <c r="M25" s="171">
         <f t="shared" si="3"/>
         <v>768224339779.08801</v>
       </c>
-      <c r="N25" s="171">
+      <c r="N25" s="167">
         <v>89864</v>
       </c>
-      <c r="O25" s="171">
+      <c r="O25" s="167">
         <v>6495</v>
       </c>
-      <c r="P25" s="171">
+      <c r="P25" s="167">
         <v>11980</v>
       </c>
-      <c r="Q25" s="175">
+      <c r="Q25" s="171">
         <f t="shared" si="4"/>
         <v>108339000000</v>
       </c>
-      <c r="R25" s="171">
+      <c r="R25" s="167">
         <v>602</v>
       </c>
-      <c r="S25" s="176">
+      <c r="S25" s="172">
         <f t="shared" si="5"/>
         <v>1.9448213478064226E-2</v>
       </c>
-      <c r="T25" s="176">
+      <c r="T25" s="172">
         <f t="shared" si="6"/>
         <v>0.87640482429107325</v>
       </c>
-      <c r="U25" s="176">
+      <c r="U25" s="172">
         <f t="shared" si="7"/>
         <v>0.12359517570892675</v>
       </c>
-      <c r="V25" s="176">
+      <c r="V25" s="172">
         <f t="shared" si="8"/>
         <v>8.1930459741387504E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="174">
+      <c r="A26" s="170">
         <v>43009</v>
       </c>
-      <c r="B26" s="167">
+      <c r="B26" s="163">
         <v>42.259998000000003</v>
       </c>
-      <c r="C26" s="168">
+      <c r="C26" s="164">
         <v>2575.2600000000002</v>
       </c>
-      <c r="D26" s="173">
+      <c r="D26" s="169">
         <f t="shared" si="0"/>
         <v>0.1365561523984713</v>
       </c>
-      <c r="E26" s="173">
+      <c r="E26" s="169">
         <f t="shared" si="0"/>
         <v>4.2488766546573409E-2</v>
       </c>
-      <c r="F26" s="171">
+      <c r="F26" s="167">
         <f t="shared" si="9"/>
         <v>1.3316078611431306</v>
       </c>
-      <c r="G26" s="173">
+      <c r="G26" s="169">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H26" s="173">
+      <c r="H26" s="169">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I26" s="173">
+      <c r="I26" s="169">
         <v>2.2414285714285699E-2</v>
       </c>
-      <c r="J26" s="173">
+      <c r="J26" s="169">
         <f t="shared" si="1"/>
         <v>8.7929392482527735E-2</v>
       </c>
-      <c r="K26" s="171">
+      <c r="K26" s="167">
         <v>5134312000</v>
       </c>
-      <c r="L26" s="172">
+      <c r="L26" s="168">
         <f t="shared" si="2"/>
         <v>20537248000</v>
       </c>
-      <c r="M26" s="175">
+      <c r="M26" s="171">
         <f t="shared" si="3"/>
         <v>867904059405.50403</v>
       </c>
-      <c r="N26" s="171">
+      <c r="N26" s="167">
         <v>97207</v>
       </c>
-      <c r="O26" s="171">
+      <c r="O26" s="167">
         <v>6496</v>
       </c>
-      <c r="P26" s="171">
+      <c r="P26" s="167">
         <v>11977</v>
       </c>
-      <c r="Q26" s="175">
+      <c r="Q26" s="171">
         <f t="shared" si="4"/>
         <v>115680000000</v>
       </c>
-      <c r="R26" s="171">
+      <c r="R26" s="167">
         <v>666</v>
       </c>
-      <c r="S26" s="176">
+      <c r="S26" s="172">
         <f t="shared" si="5"/>
         <v>2.0081258644536654E-2</v>
       </c>
-      <c r="T26" s="176">
+      <c r="T26" s="172">
         <f t="shared" si="6"/>
         <v>0.88238930989800801</v>
       </c>
-      <c r="U26" s="176">
+      <c r="U26" s="172">
         <f t="shared" si="7"/>
         <v>0.11761069010199199</v>
       </c>
-      <c r="V26" s="176">
+      <c r="V26" s="172">
         <f t="shared" si="8"/>
         <v>7.9949726639709284E-2</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="174">
+      <c r="A27" s="170">
         <v>43101</v>
       </c>
-      <c r="B27" s="167">
+      <c r="B27" s="163">
         <v>41.857498</v>
       </c>
-      <c r="C27" s="168">
+      <c r="C27" s="164">
         <v>2823.81</v>
       </c>
-      <c r="D27" s="173">
+      <c r="D27" s="169">
         <f t="shared" si="0"/>
         <v>-9.5243733802354846E-3</v>
       </c>
-      <c r="E27" s="173">
+      <c r="E27" s="169">
         <f t="shared" si="0"/>
         <v>9.6514526688567193E-2</v>
       </c>
-      <c r="F27" s="171">
+      <c r="F27" s="167">
         <f t="shared" si="9"/>
         <v>1.0471688625326183</v>
       </c>
-      <c r="G27" s="173">
+      <c r="G27" s="169">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="H27" s="173">
+      <c r="H27" s="169">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="I27" s="173">
+      <c r="I27" s="169">
         <v>2.37145161290323E-2</v>
       </c>
-      <c r="J27" s="173">
+      <c r="J27" s="169">
         <f t="shared" si="1"/>
         <v>7.6910694345689312E-2</v>
       </c>
-      <c r="K27" s="171">
+      <c r="K27" s="167">
         <v>5074013000</v>
       </c>
-      <c r="L27" s="172">
+      <c r="L27" s="168">
         <f t="shared" si="2"/>
         <v>20296052000</v>
       </c>
-      <c r="M27" s="175">
+      <c r="M27" s="171">
         <f t="shared" si="3"/>
         <v>849541955997.896</v>
       </c>
-      <c r="N27" s="171">
+      <c r="N27" s="167">
         <v>103922</v>
       </c>
-      <c r="O27" s="171">
+      <c r="O27" s="167">
         <v>6498</v>
       </c>
-      <c r="P27" s="171">
+      <c r="P27" s="167">
         <v>11980</v>
       </c>
-      <c r="Q27" s="175">
+      <c r="Q27" s="171">
         <f t="shared" si="4"/>
         <v>122400000000</v>
       </c>
-      <c r="R27" s="171">
+      <c r="R27" s="167">
         <v>734</v>
       </c>
-      <c r="S27" s="176">
+      <c r="S27" s="172">
         <f t="shared" si="5"/>
         <v>2.0686274509803922E-2</v>
       </c>
-      <c r="T27" s="176">
+      <c r="T27" s="172">
         <f t="shared" si="6"/>
         <v>0.87406655382591081</v>
       </c>
-      <c r="U27" s="176">
+      <c r="U27" s="172">
         <f t="shared" si="7"/>
         <v>0.12593344617408919</v>
       </c>
-      <c r="V27" s="176">
+      <c r="V27" s="172">
         <f t="shared" si="8"/>
         <v>6.983015939661745E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="174">
+      <c r="A28" s="170">
         <v>43191</v>
       </c>
-      <c r="B28" s="167">
+      <c r="B28" s="163">
         <v>41.314999</v>
       </c>
-      <c r="C28" s="168">
+      <c r="C28" s="164">
         <v>2648.05</v>
       </c>
-      <c r="D28" s="173">
+      <c r="D28" s="169">
         <f t="shared" si="0"/>
         <v>-1.2960616996266716E-2</v>
       </c>
-      <c r="E28" s="173">
+      <c r="E28" s="169">
         <f t="shared" si="0"/>
         <v>-6.2242148019873822E-2</v>
       </c>
-      <c r="F28" s="171">
+      <c r="F28" s="167">
         <f t="shared" si="9"/>
         <v>0.89663199979520269</v>
       </c>
-      <c r="G28" s="173">
+      <c r="G28" s="169">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="H28" s="173">
+      <c r="H28" s="169">
         <v>7.17E-2</v>
       </c>
-      <c r="I28" s="173">
+      <c r="I28" s="169">
         <v>2.7585245901639299E-2</v>
       </c>
-      <c r="J28" s="173">
+      <c r="J28" s="169">
         <f t="shared" si="1"/>
         <v>7.4120446691010311E-2</v>
       </c>
-      <c r="K28" s="171">
+      <c r="K28" s="167">
         <v>4915138000</v>
       </c>
-      <c r="L28" s="172">
+      <c r="L28" s="168">
         <f t="shared" si="2"/>
         <v>19660552000</v>
       </c>
-      <c r="M28" s="175">
+      <c r="M28" s="171">
         <f t="shared" si="3"/>
         <v>812275686219.448</v>
       </c>
-      <c r="N28" s="171">
+      <c r="N28" s="167">
         <v>101362</v>
       </c>
-      <c r="O28" s="171">
+      <c r="O28" s="167">
         <v>8498</v>
       </c>
-      <c r="P28" s="171">
+      <c r="P28" s="167">
         <v>11980</v>
       </c>
-      <c r="Q28" s="175">
+      <c r="Q28" s="171">
         <f t="shared" si="4"/>
         <v>121840000000</v>
       </c>
-      <c r="R28" s="171">
+      <c r="R28" s="167">
         <v>792</v>
       </c>
-      <c r="S28" s="176">
+      <c r="S28" s="172">
         <f t="shared" si="5"/>
         <v>2.29317137229153E-2</v>
       </c>
-      <c r="T28" s="176">
+      <c r="T28" s="172">
         <f t="shared" si="6"/>
         <v>0.86956647683210342</v>
       </c>
-      <c r="U28" s="176">
+      <c r="U28" s="172">
         <f t="shared" si="7"/>
         <v>0.13043352316789658</v>
       </c>
-      <c r="V28" s="176">
+      <c r="V28" s="172">
         <f t="shared" si="8"/>
         <v>6.7443719903481025E-2</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="174">
+      <c r="A29" s="170">
         <v>43282</v>
       </c>
-      <c r="B29" s="167">
+      <c r="B29" s="163">
         <v>47.572498000000003</v>
       </c>
-      <c r="C29" s="168">
+      <c r="C29" s="164">
         <v>2816.29</v>
       </c>
-      <c r="D29" s="173">
+      <c r="D29" s="169">
         <f t="shared" si="0"/>
         <v>0.1514582875821926</v>
       </c>
-      <c r="E29" s="173">
+      <c r="E29" s="169">
         <f t="shared" si="0"/>
         <v>6.3533543550914784E-2</v>
       </c>
-      <c r="F29" s="171">
+      <c r="F29" s="167">
         <f t="shared" si="9"/>
         <v>0.9730426226273915</v>
       </c>
-      <c r="G29" s="173">
+      <c r="G29" s="169">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H29" s="173">
+      <c r="H29" s="169">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="I29" s="173">
+      <c r="I29" s="169">
         <v>2.920625E-2</v>
       </c>
-      <c r="J29" s="173">
+      <c r="J29" s="169">
         <f t="shared" si="1"/>
         <v>8.1458638835090927E-2</v>
       </c>
-      <c r="K29" s="171">
+      <c r="K29" s="167">
         <v>4829926000</v>
       </c>
-      <c r="L29" s="172">
+      <c r="L29" s="168">
         <f t="shared" si="2"/>
         <v>19319704000</v>
       </c>
-      <c r="M29" s="175">
+      <c r="M29" s="171">
         <f t="shared" si="3"/>
         <v>919086579900.59204</v>
       </c>
-      <c r="N29" s="171">
+      <c r="N29" s="167">
         <v>97128</v>
       </c>
-      <c r="O29" s="171">
+      <c r="O29" s="167">
         <v>5498</v>
       </c>
-      <c r="P29" s="171">
+      <c r="P29" s="167">
         <v>11974</v>
       </c>
-      <c r="Q29" s="175">
+      <c r="Q29" s="171">
         <f t="shared" si="4"/>
         <v>114600000000</v>
       </c>
-      <c r="R29" s="171">
+      <c r="R29" s="167">
         <v>846</v>
       </c>
-      <c r="S29" s="176">
+      <c r="S29" s="172">
         <f t="shared" si="5"/>
         <v>2.6509598603839443E-2</v>
       </c>
-      <c r="T29" s="176">
+      <c r="T29" s="172">
         <f t="shared" si="6"/>
         <v>0.88913467367350274</v>
       </c>
-      <c r="U29" s="176">
+      <c r="U29" s="172">
         <f t="shared" si="7"/>
         <v>0.11086532632649726</v>
       </c>
-      <c r="V29" s="176">
+      <c r="V29" s="172">
         <f t="shared" si="8"/>
         <v>7.5366695558525418E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="174">
+      <c r="A30" s="170">
         <v>43374</v>
       </c>
-      <c r="B30" s="167">
+      <c r="B30" s="163">
         <v>54.715000000000003</v>
       </c>
-      <c r="C30" s="168">
+      <c r="C30" s="164">
         <v>2711.74</v>
       </c>
-      <c r="D30" s="173">
+      <c r="D30" s="169">
         <f t="shared" si="0"/>
         <v>0.15013930948086851</v>
       </c>
-      <c r="E30" s="173">
+      <c r="E30" s="169">
         <f t="shared" si="0"/>
         <v>-3.7123307613917689E-2</v>
       </c>
-      <c r="F30" s="171">
+      <c r="F30" s="167">
         <f t="shared" si="9"/>
         <v>0.64979404186815926</v>
       </c>
-      <c r="G30" s="173">
+      <c r="G30" s="169">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="H30" s="173">
+      <c r="H30" s="169">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="I30" s="173">
+      <c r="I30" s="169">
         <v>2.9238095238095198E-2</v>
       </c>
-      <c r="J30" s="173">
+      <c r="J30" s="169">
         <f t="shared" si="1"/>
         <v>6.4197014690602169E-2</v>
       </c>
-      <c r="K30" s="171">
+      <c r="K30" s="167">
         <v>4745398000</v>
       </c>
-      <c r="L30" s="172">
+      <c r="L30" s="168">
         <f t="shared" si="2"/>
         <v>18981592000</v>
       </c>
-      <c r="M30" s="175">
+      <c r="M30" s="171">
         <f t="shared" si="3"/>
         <v>1038577806280.0001</v>
       </c>
-      <c r="N30" s="171">
+      <c r="N30" s="167">
         <v>93735</v>
       </c>
-      <c r="O30" s="171">
+      <c r="O30" s="167">
         <v>8784</v>
       </c>
-      <c r="P30" s="171">
+      <c r="P30" s="167">
         <v>11964</v>
       </c>
-      <c r="Q30" s="175">
+      <c r="Q30" s="171">
         <f t="shared" si="4"/>
         <v>114483000000</v>
       </c>
-      <c r="R30" s="171">
+      <c r="R30" s="167">
         <v>868</v>
       </c>
-      <c r="S30" s="176">
+      <c r="S30" s="172">
         <f t="shared" si="5"/>
         <v>2.8301145148187941E-2</v>
       </c>
-      <c r="T30" s="176">
+      <c r="T30" s="172">
         <f t="shared" si="6"/>
         <v>0.90071382239645759</v>
       </c>
-      <c r="U30" s="176">
+      <c r="U30" s="172">
         <f t="shared" si="7"/>
         <v>9.9286177603542414E-2</v>
       </c>
-      <c r="V30" s="176">
+      <c r="V30" s="172">
         <f t="shared" si="8"/>
         <v>6.0633051011980438E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="174">
+      <c r="A31" s="170">
         <v>43466</v>
       </c>
-      <c r="B31" s="167">
+      <c r="B31" s="163">
         <v>41.610000999999997</v>
       </c>
-      <c r="C31" s="177">
+      <c r="C31" s="173">
         <v>2704.1</v>
       </c>
-      <c r="D31" s="173">
+      <c r="D31" s="169">
         <f t="shared" si="0"/>
         <v>-0.23951382619025874</v>
       </c>
-      <c r="E31" s="173">
+      <c r="E31" s="169">
         <f t="shared" si="0"/>
         <v>-2.8173792472728776E-3</v>
       </c>
-      <c r="F31" s="171">
+      <c r="F31" s="167">
         <f t="shared" si="9"/>
         <v>0.31814865601587111</v>
       </c>
-      <c r="G31" s="173">
+      <c r="G31" s="169">
         <v>5.96E-2</v>
       </c>
-      <c r="H31" s="173">
+      <c r="H31" s="169">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="I31" s="173">
+      <c r="I31" s="169">
         <v>3.0411475409836099E-2</v>
       </c>
-      <c r="J31" s="173">
+      <c r="J31" s="169">
         <f t="shared" si="1"/>
         <v>4.9373135308382013E-2</v>
       </c>
-      <c r="K31" s="171">
+      <c r="K31" s="167">
         <v>4715280000</v>
       </c>
-      <c r="L31" s="172">
+      <c r="L31" s="168">
         <f t="shared" si="2"/>
         <v>18861120000</v>
       </c>
-      <c r="M31" s="175">
+      <c r="M31" s="171">
         <f t="shared" si="3"/>
         <v>784811222061.12</v>
       </c>
-      <c r="N31" s="171">
+      <c r="N31" s="167">
         <v>92989</v>
       </c>
-      <c r="O31" s="171">
+      <c r="O31" s="167">
         <v>9772</v>
       </c>
-      <c r="P31" s="171">
+      <c r="P31" s="167">
         <v>11969</v>
       </c>
-      <c r="Q31" s="175">
+      <c r="Q31" s="171">
         <f t="shared" si="4"/>
         <v>114730000000</v>
       </c>
-      <c r="R31" s="171">
+      <c r="R31" s="167">
         <v>890</v>
       </c>
-      <c r="S31" s="176">
+      <c r="S31" s="172">
         <f t="shared" si="5"/>
         <v>2.9599930271071211E-2</v>
       </c>
-      <c r="T31" s="176">
+      <c r="T31" s="172">
         <f t="shared" si="6"/>
         <v>0.87245720686694161</v>
       </c>
-      <c r="U31" s="176">
+      <c r="U31" s="172">
         <f t="shared" si="7"/>
         <v>0.12754279313305839</v>
       </c>
-      <c r="V31" s="176">
+      <c r="V31" s="172">
         <f t="shared" si="8"/>
         <v>4.6851205508730731E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="174">
+      <c r="A32" s="170">
         <v>43556</v>
       </c>
-      <c r="B32" s="167">
+      <c r="B32" s="163">
         <v>50.167499999999997</v>
       </c>
-      <c r="C32" s="168">
+      <c r="C32" s="164">
         <v>2945.83</v>
       </c>
-      <c r="D32" s="173">
+      <c r="D32" s="169">
         <f t="shared" si="0"/>
         <v>0.20565966821293746</v>
       </c>
-      <c r="E32" s="173">
+      <c r="E32" s="169">
         <f t="shared" si="0"/>
         <v>8.9393883362301807E-2</v>
       </c>
-      <c r="F32" s="171">
+      <c r="F32" s="167">
         <f t="shared" si="9"/>
         <v>0.70868048367508629</v>
       </c>
-      <c r="G32" s="173">
+      <c r="G32" s="169">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="H32" s="173">
+      <c r="H32" s="169">
         <v>4.07E-2</v>
       </c>
-      <c r="I32" s="173">
+      <c r="I32" s="169">
         <v>2.6529508196721299E-2</v>
       </c>
-      <c r="J32" s="173">
+      <c r="J32" s="169">
         <f t="shared" si="1"/>
         <v>6.7278636008038767E-2</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="167">
         <v>4601075000</v>
       </c>
-      <c r="L32" s="172">
+      <c r="L32" s="168">
         <f t="shared" si="2"/>
         <v>18404300000</v>
       </c>
-      <c r="M32" s="175">
+      <c r="M32" s="171">
         <f t="shared" si="3"/>
         <v>923297720250</v>
       </c>
-      <c r="N32" s="171">
+      <c r="N32" s="167">
         <v>90201</v>
       </c>
-      <c r="O32" s="171">
+      <c r="O32" s="167">
         <v>10505</v>
       </c>
-      <c r="P32" s="171">
+      <c r="P32" s="167">
         <v>11924</v>
       </c>
-      <c r="Q32" s="175">
+      <c r="Q32" s="171">
         <f t="shared" si="4"/>
         <v>112630000000</v>
       </c>
-      <c r="R32" s="171">
+      <c r="R32" s="167">
         <v>1010</v>
       </c>
-      <c r="S32" s="176">
+      <c r="S32" s="172">
         <f t="shared" si="5"/>
         <v>3.2087365710734263E-2</v>
       </c>
-      <c r="T32" s="176">
+      <c r="T32" s="172">
         <f t="shared" si="6"/>
         <v>0.89127619833088445</v>
       </c>
-      <c r="U32" s="176">
+      <c r="U32" s="172">
         <f t="shared" si="7"/>
         <v>0.10872380166911555</v>
       </c>
-      <c r="V32" s="176">
+      <c r="V32" s="172">
         <f t="shared" si="8"/>
         <v>6.3452507315750403E-2</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="174">
+      <c r="A33" s="170">
         <v>43647</v>
       </c>
-      <c r="B33" s="167">
+      <c r="B33" s="163">
         <v>53.259998000000003</v>
       </c>
-      <c r="C33" s="168">
+      <c r="C33" s="164">
         <v>2980.38</v>
       </c>
-      <c r="D33" s="173">
+      <c r="D33" s="169">
         <f t="shared" si="0"/>
         <v>6.1643454427667388E-2</v>
       </c>
-      <c r="E33" s="173">
+      <c r="E33" s="169">
         <f t="shared" si="0"/>
         <v>1.172844325707878E-2</v>
       </c>
-      <c r="F33" s="171">
+      <c r="F33" s="167">
         <f t="shared" si="9"/>
         <v>0.6861386894003062</v>
       </c>
-      <c r="G33" s="173">
+      <c r="G33" s="169">
         <v>5.67E-2</v>
       </c>
-      <c r="H33" s="173">
+      <c r="H33" s="169">
         <v>3.44E-2</v>
       </c>
-      <c r="I33" s="173">
+      <c r="I33" s="169">
         <v>2.33888888888889E-2</v>
       </c>
-      <c r="J33" s="173">
+      <c r="J33" s="169">
         <f t="shared" si="1"/>
         <v>6.2292952577886265E-2</v>
       </c>
-      <c r="K33" s="171">
+      <c r="K33" s="167">
         <v>4519180000</v>
       </c>
-      <c r="L33" s="172">
+      <c r="L33" s="168">
         <f t="shared" si="2"/>
         <v>18076720000</v>
       </c>
-      <c r="M33" s="175">
+      <c r="M33" s="171">
         <f t="shared" si="3"/>
         <v>962766071046.56006</v>
       </c>
-      <c r="N33" s="171">
+      <c r="N33" s="167">
         <v>84936</v>
       </c>
-      <c r="O33" s="171">
+      <c r="O33" s="167">
         <v>13529</v>
       </c>
-      <c r="P33" s="171">
+      <c r="P33" s="167">
         <v>9953</v>
       </c>
-      <c r="Q33" s="175">
+      <c r="Q33" s="171">
         <f t="shared" si="4"/>
         <v>108418000000</v>
       </c>
-      <c r="R33" s="171">
+      <c r="R33" s="167">
         <v>866</v>
       </c>
-      <c r="S33" s="176">
+      <c r="S33" s="172">
         <f t="shared" si="5"/>
         <v>3.3518419450644724E-2</v>
       </c>
-      <c r="T33" s="176">
+      <c r="T33" s="172">
         <f t="shared" si="6"/>
         <v>0.89878676977144156</v>
       </c>
-      <c r="U33" s="176">
+      <c r="U33" s="172">
         <f t="shared" si="7"/>
         <v>0.10121323022855844</v>
       </c>
-      <c r="V33" s="176">
+      <c r="V33" s="172">
         <f t="shared" si="8"/>
         <v>5.938058913175949E-2</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="174">
+      <c r="A34" s="170">
         <v>43739</v>
       </c>
-      <c r="B34" s="167">
+      <c r="B34" s="163">
         <v>62.189999</v>
       </c>
-      <c r="C34" s="168">
+      <c r="C34" s="164">
         <v>3037.56</v>
       </c>
-      <c r="D34" s="173">
+      <c r="D34" s="169">
         <f t="shared" si="0"/>
         <v>0.16766806863192141</v>
       </c>
-      <c r="E34" s="173">
+      <c r="E34" s="169">
         <f t="shared" si="0"/>
         <v>1.9185472993376695E-2</v>
       </c>
-      <c r="F34" s="171">
+      <c r="F34" s="167">
         <f t="shared" si="9"/>
         <v>0.75050730932405396</v>
       </c>
-      <c r="G34" s="173">
+      <c r="G34" s="169">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="H34" s="173">
+      <c r="H34" s="169">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="I34" s="173">
+      <c r="I34" s="169">
         <v>1.7979687500000001E-2</v>
       </c>
-      <c r="J34" s="173">
+      <c r="J34" s="169">
         <f t="shared" si="1"/>
         <v>5.9632843167484996E-2</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="167">
         <v>4443265000</v>
       </c>
-      <c r="L34" s="172">
+      <c r="L34" s="168">
         <f t="shared" si="2"/>
         <v>17773060000</v>
       </c>
-      <c r="M34" s="175">
+      <c r="M34" s="171">
         <f t="shared" si="3"/>
         <v>1105306583626.9399</v>
       </c>
-      <c r="N34" s="171">
+      <c r="N34" s="167">
         <v>91807</v>
       </c>
-      <c r="O34" s="171">
+      <c r="O34" s="167">
         <v>10260</v>
       </c>
-      <c r="P34" s="171">
+      <c r="P34" s="167">
         <v>5980</v>
       </c>
-      <c r="Q34" s="175">
+      <c r="Q34" s="171">
         <f t="shared" si="4"/>
         <v>108047000000</v>
       </c>
-      <c r="R34" s="171">
+      <c r="R34" s="167">
         <v>810</v>
       </c>
-      <c r="S34" s="176">
+      <c r="S34" s="172">
         <f t="shared" si="5"/>
         <v>3.3096707914148475E-2</v>
       </c>
-      <c r="T34" s="176">
+      <c r="T34" s="172">
         <f t="shared" si="6"/>
         <v>0.91095176092279107</v>
       </c>
-      <c r="U34" s="176">
+      <c r="U34" s="172">
         <f t="shared" si="7"/>
         <v>8.9048239077208935E-2</v>
       </c>
-      <c r="V34" s="176">
+      <c r="V34" s="172">
         <f t="shared" si="8"/>
         <v>5.7269847051260737E-2</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="174">
+      <c r="A35" s="170">
         <v>43831</v>
       </c>
-      <c r="B35" s="167">
+      <c r="B35" s="163">
         <v>77.377502000000007</v>
       </c>
-      <c r="C35" s="168">
+      <c r="C35" s="164">
         <v>3225.52</v>
       </c>
-      <c r="D35" s="173">
+      <c r="D35" s="169">
         <f t="shared" si="0"/>
         <v>0.24421134015454804</v>
       </c>
-      <c r="E35" s="173">
+      <c r="E35" s="169">
         <f t="shared" si="0"/>
         <v>6.187861309735454E-2</v>
       </c>
-      <c r="F35" s="171">
+      <c r="F35" s="167">
         <f t="shared" si="9"/>
         <v>0.99445134004580671</v>
       </c>
-      <c r="G35" s="173">
+      <c r="G35" s="169">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H35" s="173">
+      <c r="H35" s="169">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="I35" s="173">
+      <c r="I35" s="169">
         <v>1.7919354838709701E-2</v>
       </c>
-      <c r="J35" s="173">
+      <c r="J35" s="169">
         <f t="shared" si="1"/>
         <v>6.963082452109165E-2</v>
       </c>
-      <c r="K35" s="171">
+      <c r="K35" s="167">
         <v>4375480000</v>
       </c>
-      <c r="L35" s="172">
+      <c r="L35" s="168">
         <f t="shared" si="2"/>
         <v>17501920000</v>
       </c>
-      <c r="M35" s="175">
+      <c r="M35" s="171">
         <f t="shared" si="3"/>
         <v>1354254849803.8401</v>
       </c>
-      <c r="N35" s="171">
+      <c r="N35" s="167">
         <v>93078</v>
       </c>
-      <c r="O35" s="171">
+      <c r="O35" s="167">
         <v>10224</v>
       </c>
-      <c r="P35" s="171">
+      <c r="P35" s="167">
         <v>4990</v>
       </c>
-      <c r="Q35" s="175">
+      <c r="Q35" s="171">
         <f t="shared" si="4"/>
         <v>108292000000</v>
       </c>
-      <c r="R35" s="171">
+      <c r="R35" s="167">
         <v>785</v>
       </c>
-      <c r="S35" s="176">
+      <c r="S35" s="172">
         <f t="shared" si="5"/>
         <v>3.2052229158201898E-2</v>
       </c>
-      <c r="T35" s="176">
+      <c r="T35" s="172">
         <f t="shared" si="6"/>
         <v>0.92595655994573822</v>
       </c>
-      <c r="U35" s="176">
+      <c r="U35" s="172">
         <f t="shared" si="7"/>
         <v>7.4043440054261778E-2</v>
       </c>
-      <c r="V35" s="176">
+      <c r="V35" s="172">
         <f t="shared" si="8"/>
         <v>6.6848376048016162E-2</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="174">
+      <c r="A36" s="170">
         <v>43922</v>
       </c>
-      <c r="B36" s="167">
+      <c r="B36" s="163">
         <v>73.449996999999996</v>
       </c>
-      <c r="C36" s="168">
+      <c r="C36" s="164">
         <v>2912.43</v>
       </c>
-      <c r="D36" s="173">
+      <c r="D36" s="169">
         <f t="shared" si="0"/>
         <v>-5.0757712493742835E-2</v>
       </c>
-      <c r="E36" s="173">
+      <c r="E36" s="169">
         <f t="shared" si="0"/>
         <v>-9.7066519506932236E-2</v>
       </c>
-      <c r="F36" s="171">
+      <c r="F36" s="167">
         <f t="shared" si="9"/>
         <v>0.97882143898777374</v>
       </c>
-      <c r="G36" s="173">
+      <c r="G36" s="169">
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="H36" s="173">
+      <c r="H36" s="169">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I36" s="173">
+      <c r="I36" s="169">
         <v>1.3650000000000001E-2</v>
       </c>
-      <c r="J36" s="173">
+      <c r="J36" s="169">
         <f t="shared" si="1"/>
         <v>7.3945400641646869E-2</v>
       </c>
-      <c r="K36" s="171">
+      <c r="K36" s="167">
         <v>4334335000</v>
       </c>
-      <c r="L36" s="172">
+      <c r="L36" s="168">
         <f t="shared" si="2"/>
         <v>17337340000</v>
       </c>
-      <c r="M36" s="175">
+      <c r="M36" s="171">
         <f t="shared" si="3"/>
         <v>1273427570987.98</v>
       </c>
-      <c r="N36" s="178">
+      <c r="N36" s="174">
         <v>89086</v>
       </c>
-      <c r="O36" s="171">
+      <c r="O36" s="167">
         <v>10392</v>
       </c>
-      <c r="P36" s="171">
+      <c r="P36" s="167">
         <v>10029</v>
       </c>
-      <c r="Q36" s="175">
+      <c r="Q36" s="171">
         <f t="shared" si="4"/>
         <v>109507000000</v>
       </c>
-      <c r="R36" s="171">
+      <c r="R36" s="167">
         <v>757</v>
       </c>
-      <c r="S36" s="176">
+      <c r="S36" s="172">
         <f t="shared" si="5"/>
         <v>2.9386249280867891E-2</v>
       </c>
-      <c r="T36" s="176">
+      <c r="T36" s="172">
         <f t="shared" si="6"/>
         <v>0.92081548737206897</v>
       </c>
-      <c r="U36" s="176">
+      <c r="U36" s="172">
         <f t="shared" si="7"/>
         <v>7.9184512627931025E-2</v>
       </c>
-      <c r="V36" s="176">
+      <c r="V36" s="172">
         <f t="shared" si="8"/>
         <v>7.0417005958029369E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="174">
+      <c r="A37" s="170">
         <v>44013</v>
       </c>
-      <c r="B37" s="167">
+      <c r="B37" s="163">
         <v>106.260002</v>
       </c>
-      <c r="C37" s="168">
+      <c r="C37" s="164">
         <v>3271.12</v>
       </c>
-      <c r="D37" s="173">
+      <c r="D37" s="169">
         <f t="shared" si="0"/>
         <v>0.44669852062757753</v>
       </c>
-      <c r="E37" s="173">
+      <c r="E37" s="169">
         <f t="shared" si="0"/>
         <v>0.123158324835275</v>
       </c>
-      <c r="F37" s="171">
+      <c r="F37" s="167">
         <f t="shared" si="9"/>
         <v>1.5306983567165311</v>
       </c>
-      <c r="G37" s="173">
+      <c r="G37" s="169">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="H37" s="173">
+      <c r="H37" s="169">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="I37" s="173">
+      <c r="I37" s="169">
         <v>6.8761904761904802E-3</v>
       </c>
-      <c r="J37" s="173">
+      <c r="J37" s="169">
         <f t="shared" si="1"/>
         <v>8.9074692231868202E-2</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="167">
         <v>4275634000</v>
       </c>
-      <c r="L37" s="172">
+      <c r="L37" s="168">
         <f t="shared" si="2"/>
         <v>17102536000</v>
       </c>
-      <c r="M37" s="175">
+      <c r="M37" s="171">
         <f t="shared" si="3"/>
         <v>1817315509565.072</v>
       </c>
-      <c r="N37" s="178">
+      <c r="N37" s="174">
         <v>94048</v>
       </c>
-      <c r="O37" s="178">
+      <c r="O37" s="174">
         <v>7509</v>
       </c>
-      <c r="P37" s="178">
+      <c r="P37" s="174">
         <v>11166</v>
       </c>
-      <c r="Q37" s="175">
+      <c r="Q37" s="171">
         <f t="shared" si="4"/>
         <v>112723000000</v>
       </c>
-      <c r="R37" s="171">
+      <c r="R37" s="167">
         <v>697</v>
       </c>
-      <c r="S37" s="176">
+      <c r="S37" s="172">
         <f t="shared" si="5"/>
         <v>2.7048605874577504E-2</v>
       </c>
-      <c r="T37" s="176">
+      <c r="T37" s="172">
         <f t="shared" si="6"/>
         <v>0.94159546587212828</v>
       </c>
-      <c r="U37" s="176">
+      <c r="U37" s="172">
         <f t="shared" si="7"/>
         <v>5.8404534127871721E-2</v>
       </c>
-      <c r="V37" s="176">
+      <c r="V37" s="172">
         <f t="shared" si="8"/>
         <v>8.5452087554395498E-2</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="174">
+      <c r="A38" s="170">
         <v>44105</v>
       </c>
-      <c r="B38" s="167">
+      <c r="B38" s="163">
         <v>108.860001</v>
       </c>
-      <c r="C38" s="168">
+      <c r="C38" s="164">
         <v>3269.96</v>
       </c>
-      <c r="D38" s="173">
+      <c r="D38" s="169">
         <f t="shared" si="0"/>
         <v>2.4468275466435596E-2</v>
       </c>
-      <c r="E38" s="173">
+      <c r="E38" s="169">
         <f t="shared" si="0"/>
         <v>-3.5461860157981473E-4</v>
       </c>
-      <c r="F38" s="171">
+      <c r="F38" s="167">
         <f t="shared" si="9"/>
         <v>1.5460733405424141</v>
       </c>
-      <c r="G38" s="173">
+      <c r="G38" s="169">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="H38" s="173">
+      <c r="H38" s="169">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="I38" s="173">
+      <c r="I38" s="169">
         <v>6.5062499999999999E-3</v>
       </c>
-      <c r="J38" s="173">
+      <c r="J38" s="169">
         <f t="shared" si="1"/>
         <v>7.9790126341710427E-2</v>
       </c>
-      <c r="K38" s="171">
+      <c r="K38" s="167">
         <v>17001802000</v>
       </c>
-      <c r="L38" s="172">
+      <c r="L38" s="168">
         <f>K38</f>
         <v>17001802000</v>
       </c>
-      <c r="M38" s="175">
+      <c r="M38" s="171">
         <f t="shared" si="3"/>
         <v>1850816182721.802</v>
       </c>
-      <c r="N38" s="171">
+      <c r="N38" s="167">
         <v>98667</v>
       </c>
-      <c r="O38" s="171">
+      <c r="O38" s="167">
         <v>8773</v>
       </c>
-      <c r="P38" s="171">
+      <c r="P38" s="167">
         <v>4996</v>
       </c>
-      <c r="Q38" s="175">
+      <c r="Q38" s="171">
         <f t="shared" si="4"/>
         <v>112436000000</v>
       </c>
-      <c r="R38" s="171">
+      <c r="R38" s="167">
         <v>634</v>
       </c>
-      <c r="S38" s="176">
+      <c r="S38" s="172">
         <f t="shared" si="5"/>
         <v>2.5552314205414636E-2</v>
       </c>
-      <c r="T38" s="176">
+      <c r="T38" s="172">
         <f t="shared" si="6"/>
         <v>0.94272972112827524</v>
       </c>
-      <c r="U38" s="176">
+      <c r="U38" s="172">
         <f t="shared" si="7"/>
         <v>5.7270278871724756E-2</v>
       </c>
-      <c r="V38" s="176">
+      <c r="V38" s="172">
         <f t="shared" si="8"/>
         <v>7.6683911715272543E-2</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="174">
+      <c r="A39" s="170">
         <v>44197</v>
       </c>
-      <c r="B39" s="167">
+      <c r="B39" s="163">
         <v>131.96000699999999</v>
       </c>
-      <c r="C39" s="168">
+      <c r="C39" s="164">
         <v>3714.24</v>
       </c>
-      <c r="D39" s="173">
+      <c r="D39" s="169">
         <f t="shared" si="0"/>
         <v>0.21219920804520287</v>
       </c>
-      <c r="E39" s="173">
+      <c r="E39" s="169">
         <f t="shared" si="0"/>
         <v>0.13586710540801716</v>
       </c>
-      <c r="F39" s="171">
+      <c r="F39" s="167">
         <f t="shared" si="9"/>
         <v>1.7065346606132785</v>
       </c>
-      <c r="G39" s="173">
+      <c r="G39" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H39" s="173">
+      <c r="H39" s="169">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I39" s="173">
+      <c r="I39" s="169">
         <v>8.6451612903225804E-3</v>
       </c>
-      <c r="J39" s="173">
+      <c r="J39" s="169">
         <f t="shared" si="1"/>
         <v>8.0319617036080287E-2</v>
       </c>
-      <c r="K39" s="171">
+      <c r="K39" s="167">
         <v>16788096000</v>
       </c>
-      <c r="L39" s="172">
+      <c r="L39" s="168">
         <f>K39</f>
         <v>16788096000</v>
       </c>
-      <c r="M39" s="175">
+      <c r="M39" s="171">
         <f t="shared" si="3"/>
         <v>2215357265676.6719</v>
       </c>
-      <c r="N39" s="178">
+      <c r="N39" s="174">
         <v>99281</v>
       </c>
-      <c r="O39" s="178">
+      <c r="O39" s="174">
         <v>7762</v>
       </c>
-      <c r="P39" s="178">
+      <c r="P39" s="174">
         <v>5000</v>
       </c>
-      <c r="Q39" s="175">
+      <c r="Q39" s="171">
         <f t="shared" si="4"/>
         <v>112043000000</v>
       </c>
-      <c r="R39" s="171">
+      <c r="R39" s="167">
         <v>638</v>
       </c>
-      <c r="S39" s="176">
+      <c r="S39" s="172">
         <f t="shared" si="5"/>
         <v>2.4329944753353622E-2</v>
       </c>
-      <c r="T39" s="176">
+      <c r="T39" s="172">
         <f t="shared" si="6"/>
         <v>0.9518591616352573</v>
       </c>
-      <c r="U39" s="176">
+      <c r="U39" s="172">
         <f t="shared" si="7"/>
         <v>4.81408383647427E-2</v>
       </c>
-      <c r="V39" s="176">
+      <c r="V39" s="172">
         <f t="shared" si="8"/>
         <v>7.7624227272622637E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="179">
+      <c r="A40" s="175">
         <v>44287</v>
       </c>
-      <c r="B40" s="180">
+      <c r="B40" s="176">
         <v>131.46000699999999</v>
       </c>
-      <c r="C40" s="181">
+      <c r="C40" s="177">
         <v>4181.17</v>
       </c>
-      <c r="D40" s="182">
+      <c r="D40" s="178">
         <f t="shared" si="0"/>
         <v>-3.7890267768779795E-3</v>
       </c>
-      <c r="E40" s="182">
+      <c r="E40" s="178">
         <f t="shared" si="0"/>
         <v>0.12571347031963476</v>
       </c>
-      <c r="F40" s="171">
+      <c r="F40" s="167">
         <f t="shared" si="9"/>
         <v>1.3160844710449926</v>
       </c>
-      <c r="G40" s="182">
+      <c r="G40" s="178">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="H40" s="182">
+      <c r="H40" s="178">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="I40" s="182">
+      <c r="I40" s="178">
         <v>1.3359016393442599E-2</v>
       </c>
-      <c r="J40" s="182">
+      <c r="J40" s="178">
         <f t="shared" si="1"/>
         <v>6.7844913494705283E-2</v>
       </c>
-      <c r="K40" s="183">
+      <c r="K40" s="179">
         <v>16687631000</v>
       </c>
-      <c r="L40" s="184">
+      <c r="L40" s="180">
         <f>K40</f>
         <v>16687631000</v>
       </c>
-      <c r="M40" s="185">
+      <c r="M40" s="181">
         <f t="shared" si="3"/>
         <v>2193756088073.4167</v>
       </c>
-      <c r="N40" s="183">
+      <c r="N40" s="179">
         <v>108642</v>
       </c>
-      <c r="O40" s="183">
+      <c r="O40" s="179">
         <v>8003</v>
       </c>
-      <c r="P40" s="183">
+      <c r="P40" s="179">
         <v>5000</v>
       </c>
-      <c r="Q40" s="185">
+      <c r="Q40" s="181">
         <f t="shared" si="4"/>
         <v>121645000000</v>
       </c>
-      <c r="R40" s="183">
+      <c r="R40" s="179">
         <v>670</v>
       </c>
-      <c r="S40" s="186">
+      <c r="S40" s="182">
         <f t="shared" si="5"/>
         <v>2.1694274322824614E-2</v>
       </c>
-      <c r="T40" s="186">
+      <c r="T40" s="182">
         <f t="shared" si="6"/>
         <v>0.9474626661330553</v>
       </c>
-      <c r="U40" s="186">
+      <c r="U40" s="182">
         <f t="shared" si="7"/>
         <v>5.2537333866944702E-2</v>
       </c>
-      <c r="V40" s="186">
+      <c r="V40" s="182">
         <f t="shared" si="8"/>
         <v>6.542028195635928E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="187" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="189"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="189"/>
-      <c r="T41" s="189"/>
-      <c r="U41" s="189"/>
-      <c r="V41" s="190">
+      <c r="A41" s="190" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="183"/>
+      <c r="E41" s="183"/>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="183"/>
+      <c r="S41" s="183"/>
+      <c r="T41" s="183"/>
+      <c r="U41" s="183"/>
+      <c r="V41" s="184">
         <f>AVERAGE(V3:V40)</f>
         <v>6.7380327129735726E-2</v>
       </c>
@@ -10123,4 +9255,103 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF89F64-D811-B94E-94E9-D7DE0ECDCD2F}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1">
+        <v>366849.96213199501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2">
+        <v>213320.95322589701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>153529.008906098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="185">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6">
+        <v>110526.008906098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>15760.7214249757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>94765.287481122301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9">
+        <v>16734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>5.6217958419507799</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>